--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D12700-4C69-4499-A33A-1AC15C4EC7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A3BAAE-021B-4484-A774-93500860A8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -210,6 +199,10 @@
   <si>
     <t>按照来源配置(技能)的方式来计算</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择目标用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -350,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -358,6 +351,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,9 +366,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -650,23 +644,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
-    <col min="7" max="8" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -681,10 +677,10 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="9"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -698,7 +694,7 @@
       <c r="S1"/>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -726,7 +722,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -741,10 +737,10 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="11"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -758,7 +754,7 @@
       <c r="S3"/>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -784,7 +780,7 @@
       <c r="S4"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -818,149 +814,184 @@
       <c r="S5"/>
       <c r="T5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
-        <v>DamageUnit_1</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>27</v>
+        <v>DamageUnit_0</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D12" si="0">B7&amp;"_"&amp;C7</f>
-        <v>DamageUnit_2</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>28</v>
+        <f>B7&amp;"_"&amp;C7</f>
+        <v>DamageUnit_1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ref="D8:D13" si="0">B8&amp;"_"&amp;C8</f>
+        <v>DamageUnit_2</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>DamageUnit_3</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>DamageUnit_4</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>DamageUnit_5</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>DamageUnit_6</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>7</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>DamageUnit_7</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I14" s="6"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A3BAAE-021B-4484-A774-93500860A8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478F4432-0C46-4BD9-9512-CC7CCC5D88C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,6 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,7 +367,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -647,7 +647,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,10 +677,10 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="10"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -737,10 +737,10 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="12"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -815,7 +815,7 @@
       <c r="T5"/>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -826,14 +826,14 @@
         <f>B6&amp;"_"&amp;C6</f>
         <v>DamageUnit_0</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="8">
         <v>0</v>
       </c>
       <c r="I6"/>
@@ -867,7 +867,7 @@
         <v>20</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478F4432-0C46-4BD9-9512-CC7CCC5D88C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0F171F-6F50-41DB-832D-CC70A256C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>选择目标用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定回血</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -355,6 +359,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -647,7 +654,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,10 +684,10 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="11"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -737,10 +744,10 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="13"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -990,6 +997,27 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" t="str">
+        <f>B14&amp;"_"&amp;C14</f>
+        <v>DamageUnit_8</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>-200</v>
+      </c>
+    </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I15" s="6"/>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0F171F-6F50-41DB-832D-CC70A256C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C436FF-3107-4D18-8CD4-5E4ACB540F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="0" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -168,29 +181,10 @@
     <t>PercentCurBloodBeHurter</t>
   </si>
   <si>
-    <t>PropertyBlood</t>
-  </si>
-  <si>
     <t>LastSelectBlood</t>
   </si>
   <si>
     <t>固定血量</t>
-  </si>
-  <si>
-    <t>固定攻击者的总血量的百分比</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定受击者的总血量的百分比</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定攻击者的当前血量的百分比</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定受击者的当前血量的百分比</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>按照属性进行计算</t>
@@ -207,6 +201,94 @@
   <si>
     <t>固定回血</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyBlood</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Const</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealConst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackerHpPercent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitterHpPercent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackerCurHpPercent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitterCurHpPercent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定攻击者的总血量的系数</t>
+  </si>
+  <si>
+    <t>固定受击者的总血量的系数</t>
+  </si>
+  <si>
+    <t>固定攻击者的当前血量的系数</t>
+  </si>
+  <si>
+    <t>固定受击者的当前血量的系数</t>
+  </si>
+  <si>
+    <t>毒蝎塔1buff伤害：按攻击者攻击力掉血</t>
+  </si>
+  <si>
+    <t>毒蝎塔2buff伤害：按攻击者攻击力掉血</t>
+  </si>
+  <si>
+    <t>毒蝎塔3buff伤害：按攻击者攻击力掉血</t>
+  </si>
+  <si>
+    <t>火球塔1buff伤害：按攻击者攻击力掉血</t>
+  </si>
+  <si>
+    <t>火球塔2buff伤害：按攻击者攻击力掉血</t>
+  </si>
+  <si>
+    <t>火球塔3buff伤害：按攻击者攻击力掉血</t>
+  </si>
+  <si>
+    <t>BuffTowerScorpio1</t>
+  </si>
+  <si>
+    <t>BuffTowerScorpio2</t>
+  </si>
+  <si>
+    <t>BuffTowerScorpio3</t>
+  </si>
+  <si>
+    <t>BuffTowerFireBall1</t>
+  </si>
+  <si>
+    <t>BuffTowerFireBall2</t>
+  </si>
+  <si>
+    <t>BuffTowerFireBall3</t>
   </si>
 </sst>
 </file>
@@ -651,20 +733,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D15" sqref="D15:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.75" customWidth="1"/>
     <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -826,16 +908,16 @@
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
-        <v>DamageUnit_0</v>
+        <v>DamageUnit_Empty</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -860,15 +942,15 @@
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
-        <v>DamageUnit_1</v>
+        <v>DamageUnit_Const</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -881,15 +963,15 @@
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ref="D8:D13" si="0">B8&amp;"_"&amp;C8</f>
-        <v>DamageUnit_2</v>
+        <v>DamageUnit_AttackerHpPercent</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -902,15 +984,15 @@
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>3</v>
+      <c r="C9" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>DamageUnit_3</v>
+        <v>DamageUnit_HitterHpPercent</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
@@ -923,15 +1005,15 @@
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
-        <v>4</v>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>DamageUnit_4</v>
+        <v>DamageUnit_AttackerCurHpPercent</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -944,15 +1026,15 @@
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>5</v>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>DamageUnit_5</v>
+        <v>DamageUnit_HitterCurHpPercent</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -965,51 +1047,54 @@
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>6</v>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>DamageUnit_6</v>
+        <v>DamageUnit_Attribute</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>7</v>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>DamageUnit_7</v>
+        <v>DamageUnit_Source</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>8</v>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D14" t="str">
         <f>B14&amp;"_"&amp;C14</f>
-        <v>DamageUnit_8</v>
+        <v>DamageUnit_HealConst</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -1019,7 +1104,131 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15:D20" si="1">B15&amp;"_"&amp;C15</f>
+        <v>DamageUnit_BuffTowerScorpio1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
       <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>DamageUnit_BuffTowerScorpio2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>DamageUnit_BuffTowerScorpio3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>DamageUnit_BuffTowerFireBall1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>DamageUnit_BuffTowerFireBall2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>DamageUnit_BuffTowerFireBall3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20">
+        <v>3.7499999999999999E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EE0B47-C161-4DE8-9395-D4446CDB0A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5188F817-E932-43F3-9831-477679CD2E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
   <si>
     <t>##var</t>
   </si>
@@ -333,107 +333,118 @@
     <t>DamageUnit_AttackerCurHpPercent</t>
   </si>
   <si>
+    <t>DamageUnit_Source</t>
+  </si>
+  <si>
+    <t>DamageUnit_HealConst</t>
+  </si>
+  <si>
+    <t>DamageUnit_HealConst1</t>
+  </si>
+  <si>
+    <t>DamageUnit_HealConst2</t>
+  </si>
+  <si>
+    <t>DamageUnit_HealConst3</t>
+  </si>
+  <si>
+    <t>DamageUnit_BuffTowerScorpio1</t>
+  </si>
+  <si>
+    <t>DamageUnit_BuffTowerScorpio2</t>
+  </si>
+  <si>
+    <t>DamageUnit_BuffTowerScorpio3</t>
+  </si>
+  <si>
+    <t>DamageUnit_BuffTowerFireBall1</t>
+  </si>
+  <si>
+    <t>DamageUnit_BuffTowerFireBall2</t>
+  </si>
+  <si>
+    <t>DamageUnit_BuffTowerFireBall3</t>
+  </si>
+  <si>
+    <t>DamageUnit_AttributeDisAdd</t>
+  </si>
+  <si>
+    <t>DamageUnit_AttributeDisPlus</t>
+  </si>
+  <si>
+    <t>DamageUnit_AttributeHeightAdd</t>
+  </si>
+  <si>
+    <t>DamageUnit_AttributeHeightPlus</t>
+  </si>
+  <si>
+    <t>挑战关卡怪物恢复技能_固定回血</t>
+  </si>
+  <si>
+    <t>按照属性进行计算</t>
+  </si>
+  <si>
+    <t>单体通用</t>
+  </si>
+  <si>
+    <t>DamageUnit_AttributeDisAdd_PlayerCircle1</t>
+  </si>
+  <si>
+    <t>按照属性进行计算（距离递增）_毒雾塔LV1</t>
+  </si>
+  <si>
+    <t>毒雾塔</t>
+  </si>
+  <si>
+    <t>按照属性进行计算（距离递增）_毒雾塔LV2</t>
+  </si>
+  <si>
+    <t>按照属性进行计算（距离递增）_毒雾塔LV3</t>
+  </si>
+  <si>
+    <t>DamageUnit_AttributeHeightPlus_TowerElec1</t>
+  </si>
+  <si>
+    <t>按照属性进行计算（高度递减）_雷电塔LV1</t>
+  </si>
+  <si>
+    <t>雷电塔</t>
+  </si>
+  <si>
+    <t>按照属性进行计算（高度递减）_雷电塔LV2</t>
+  </si>
+  <si>
+    <t>按照属性进行计算（高度递减）_雷电塔LV3</t>
+  </si>
+  <si>
+    <t>DamageUnit_Attribute_Buff_Line3_Fire</t>
+  </si>
+  <si>
+    <t>按照属性进行计算（毒）_火焰塔LV3</t>
+  </si>
+  <si>
+    <t>火焰塔</t>
+  </si>
+  <si>
     <t>DamageUnit_HitterCurHpPercent</t>
-  </si>
-  <si>
-    <t>DamageUnit_Source</t>
-  </si>
-  <si>
-    <t>DamageUnit_HealConst</t>
-  </si>
-  <si>
-    <t>DamageUnit_HealConst1</t>
-  </si>
-  <si>
-    <t>DamageUnit_HealConst2</t>
-  </si>
-  <si>
-    <t>DamageUnit_HealConst3</t>
-  </si>
-  <si>
-    <t>DamageUnit_BuffTowerScorpio1</t>
-  </si>
-  <si>
-    <t>DamageUnit_BuffTowerScorpio2</t>
-  </si>
-  <si>
-    <t>DamageUnit_BuffTowerScorpio3</t>
-  </si>
-  <si>
-    <t>DamageUnit_BuffTowerFireBall1</t>
-  </si>
-  <si>
-    <t>DamageUnit_BuffTowerFireBall2</t>
-  </si>
-  <si>
-    <t>DamageUnit_BuffTowerFireBall3</t>
-  </si>
-  <si>
-    <t>DamageUnit_AttributeDisAdd</t>
-  </si>
-  <si>
-    <t>DamageUnit_AttributeDisPlus</t>
-  </si>
-  <si>
-    <t>DamageUnit_AttributeHeightAdd</t>
-  </si>
-  <si>
-    <t>DamageUnit_AttributeHeightPlus</t>
-  </si>
-  <si>
-    <t>挑战关卡怪物恢复技能_固定回血</t>
-  </si>
-  <si>
-    <t>按照属性进行计算</t>
-  </si>
-  <si>
-    <t>单体通用</t>
-  </si>
-  <si>
-    <t>DamageUnit_AttributeDisAdd_PlayerCircle1</t>
-  </si>
-  <si>
-    <t>按照属性进行计算（距离递增）_毒雾塔LV1</t>
-  </si>
-  <si>
-    <t>毒雾塔</t>
-  </si>
-  <si>
-    <t>按照属性进行计算（距离递增）_毒雾塔LV2</t>
-  </si>
-  <si>
-    <t>按照属性进行计算（距离递增）_毒雾塔LV3</t>
-  </si>
-  <si>
-    <t>DamageUnit_AttributeHeightPlus_TowerElec1</t>
-  </si>
-  <si>
-    <t>按照属性进行计算（高度递减）_雷电塔LV1</t>
-  </si>
-  <si>
-    <t>雷电塔</t>
-  </si>
-  <si>
-    <t>按照属性进行计算（高度递减）_雷电塔LV2</t>
-  </si>
-  <si>
-    <t>按照属性进行计算（高度递减）_雷电塔LV3</t>
-  </si>
-  <si>
-    <t>DamageUnit_Attribute_Buff_Line3_Fire</t>
-  </si>
-  <si>
-    <t>按照属性进行计算（毒）_火焰塔LV3</t>
-  </si>
-  <si>
-    <t>火焰塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_HitterCurHpPercent_TowerScorpio1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_HitterCurHpPercent_TowerScorpio2</t>
+  </si>
+  <si>
+    <t>DamageUnit_HitterCurHpPercent_TowerScorpio3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +486,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -578,7 +597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -599,6 +618,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -911,20 +933,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD13"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
@@ -946,14 +968,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1014,14 +1036,14 @@
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1106,7 +1128,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -1127,15 +1149,15 @@
         <v>0</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1144,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1156,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L7" s="7">
         <v>1</v>
@@ -1167,7 +1189,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
@@ -1176,10 +1198,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1188,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7">
         <v>2</v>
@@ -1199,7 +1221,7 @@
         <v>54</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -1211,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="7">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1220,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L9" s="7">
         <v>3</v>
@@ -1228,10 +1250,10 @@
     </row>
     <row r="10" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>28</v>
@@ -1246,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>-60</v>
+        <v>-140</v>
       </c>
       <c r="J10" s="7">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7">
         <v>1</v>
@@ -1263,7 +1285,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>28</v>
@@ -1278,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>-60</v>
+        <v>-140</v>
       </c>
       <c r="J11" s="7">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="7">
         <v>2</v>
@@ -1295,7 +1317,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -1310,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>-60</v>
+        <v>-140</v>
       </c>
       <c r="J12" s="7">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="7">
         <v>3</v>
@@ -1324,10 +1346,10 @@
     </row>
     <row r="13" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>28</v>
@@ -1348,25 +1370,50 @@
         <v>0</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L13" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="15" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
-        <v>57</v>
+      <c r="B15" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F15" s="7">
-        <v>-4860</v>
+        <v>0.02</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1382,17 +1429,17 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
-        <v>58</v>
+      <c r="B16" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F16" s="7">
-        <v>-5130</v>
+        <v>0.03</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -1407,35 +1454,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="7">
-        <v>-5400</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="17" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>65</v>
@@ -1444,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="7">
-        <v>-6480</v>
+        <v>-4860</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -1461,7 +1483,7 @@
     </row>
     <row r="19" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>65</v>
@@ -1470,7 +1492,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="7">
-        <v>-6480</v>
+        <v>-5130</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -1487,7 +1509,7 @@
     </row>
     <row r="20" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>65</v>
@@ -1496,7 +1518,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="7">
-        <v>-8100</v>
+        <v>-5400</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -1513,7 +1535,7 @@
     </row>
     <row r="21" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>65</v>
@@ -1522,7 +1544,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="7">
-        <v>-9990</v>
+        <v>-6480</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -1539,7 +1561,7 @@
     </row>
     <row r="22" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>65</v>
@@ -1548,7 +1570,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="7">
-        <v>-10260</v>
+        <v>-6480</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -1563,19 +1585,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="7">
+        <v>-8100</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="24" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="7">
-        <v>-240</v>
+        <v>-9990</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -1592,16 +1639,16 @@
     </row>
     <row r="25" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="7">
-        <v>-480</v>
+        <v>-10260</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -1616,44 +1663,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="7">
-        <v>-720</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="26" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="7">
-        <v>-840</v>
+        <v>-240</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -1670,16 +1692,16 @@
     </row>
     <row r="28" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="7">
-        <v>-960</v>
+        <v>-480</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -1696,16 +1718,16 @@
     </row>
     <row r="29" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="7">
-        <v>-1920</v>
+        <v>-720</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -1722,16 +1744,16 @@
     </row>
     <row r="30" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="7">
-        <v>-1920</v>
+        <v>-840</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -1746,19 +1768,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="7">
+        <v>-960</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="32" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="7">
-        <v>0</v>
+        <v>-1920</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -1775,16 +1822,16 @@
     </row>
     <row r="33" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="7">
-        <v>5</v>
+        <v>-1920</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
@@ -1799,44 +1846,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="7">
-        <v>2</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="34" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" s="7">
         <v>0</v>
@@ -1853,16 +1875,16 @@
     </row>
     <row r="36" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F36" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
@@ -1879,16 +1901,16 @@
     </row>
     <row r="37" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F37" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G37" s="7">
         <v>0</v>
@@ -1905,13 +1927,16 @@
     </row>
     <row r="38" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
@@ -1928,16 +1953,16 @@
     </row>
     <row r="39" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F39" s="7">
-        <v>-50000</v>
+        <v>10</v>
       </c>
       <c r="G39" s="7">
         <v>0</v>
@@ -1953,17 +1978,17 @@
       </c>
     </row>
     <row r="40" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="7" t="s">
-        <v>81</v>
+      <c r="B40" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F40" s="7">
-        <v>-10000</v>
+        <v>10</v>
       </c>
       <c r="G40" s="7">
         <v>0</v>
@@ -1980,16 +2005,13 @@
     </row>
     <row r="41" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="7">
-        <v>-40000</v>
+        <v>30</v>
       </c>
       <c r="G41" s="7">
         <v>0</v>
@@ -2006,7 +2028,7 @@
     </row>
     <row r="42" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>31</v>
@@ -2015,7 +2037,7 @@
         <v>18</v>
       </c>
       <c r="F42" s="7">
-        <v>-100000</v>
+        <v>-50000</v>
       </c>
       <c r="G42" s="7">
         <v>0</v>
@@ -2032,16 +2054,16 @@
     </row>
     <row r="43" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F43" s="7">
-        <v>0.05</v>
+        <v>-10000</v>
       </c>
       <c r="G43" s="7">
         <v>0</v>
@@ -2058,16 +2080,16 @@
     </row>
     <row r="44" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F44" s="7">
-        <v>0.05</v>
+        <v>-40000</v>
       </c>
       <c r="G44" s="7">
         <v>0</v>
@@ -2084,16 +2106,16 @@
     </row>
     <row r="45" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F45" s="7">
-        <v>0.05</v>
+        <v>-100000</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
@@ -2110,16 +2132,16 @@
     </row>
     <row r="46" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="7">
-        <v>3.7499999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G46" s="7">
         <v>0</v>
@@ -2136,16 +2158,16 @@
     </row>
     <row r="47" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="7">
-        <v>3.7499999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G47" s="7">
         <v>0</v>
@@ -2162,50 +2184,100 @@
     </row>
     <row r="48" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F48" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="G48" s="7">
-        <v>0</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="7">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="51" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F51" s="7">
-        <v>1</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="G51" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H51" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I51" s="7">
         <v>0</v>
@@ -2214,64 +2286,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52" s="7">
-        <v>1</v>
-      </c>
-      <c r="G52" s="7">
-        <v>-10</v>
-      </c>
-      <c r="H52" s="7">
-        <v>40</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" s="7">
-        <v>1</v>
-      </c>
-      <c r="G53" s="7">
-        <v>0</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>10</v>
-      </c>
-      <c r="J53" s="7">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="52" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>38</v>
@@ -2280,15 +2302,93 @@
         <v>1</v>
       </c>
       <c r="G54" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H54" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7">
         <v>-10</v>
       </c>
-      <c r="J54" s="7">
+      <c r="H55" s="7">
+        <v>40</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>10</v>
+      </c>
+      <c r="J56" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>-10</v>
+      </c>
+      <c r="J57" s="7">
         <v>40</v>
       </c>
     </row>
@@ -2298,10 +2398,10 @@
     <mergeCell ref="E3:J3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B24:B30">
+  <conditionalFormatting sqref="B27:B33">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B1048576 B1:B23">
+  <conditionalFormatting sqref="B34:B1048576 B1:B26">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5188F817-E932-43F3-9831-477679CD2E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25860B1-5E11-425B-8BED-01241ADC8375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -936,10 +936,10 @@
   <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10:I12"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1463,10 +1463,10 @@
         <v>65</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F18" s="7">
-        <v>-4860</v>
+        <v>-0.25</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -1489,10 +1489,10 @@
         <v>65</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F19" s="7">
-        <v>-5130</v>
+        <v>-0.25</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -1515,10 +1515,10 @@
         <v>65</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F20" s="7">
-        <v>-5400</v>
+        <v>-0.25</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -1541,10 +1541,10 @@
         <v>65</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F21" s="7">
-        <v>-6480</v>
+        <v>-0.25</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>65</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F22" s="7">
-        <v>-6480</v>
+        <v>-0.25</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>65</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F23" s="7">
-        <v>-8100</v>
+        <v>-0.25</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>65</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F24" s="7">
-        <v>-9990</v>
+        <v>-0.25</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -1645,10 +1645,10 @@
         <v>65</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F25" s="7">
-        <v>-10260</v>
+        <v>-0.25</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>93</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F27" s="7">
-        <v>-240</v>
+        <v>-0.25</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -1698,10 +1698,10 @@
         <v>93</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F28" s="7">
-        <v>-480</v>
+        <v>-0.25</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -1724,10 +1724,10 @@
         <v>93</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F29" s="7">
-        <v>-720</v>
+        <v>-0.25</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>93</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F30" s="7">
-        <v>-840</v>
+        <v>-0.25</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>93</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F31" s="7">
-        <v>-960</v>
+        <v>-0.25</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         <v>93</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F32" s="7">
-        <v>-1920</v>
+        <v>-0.25</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>93</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F33" s="7">
-        <v>-1920</v>
+        <v>-0.25</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>31</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F42" s="7">
-        <v>-50000</v>
+        <v>-0.25</v>
       </c>
       <c r="G42" s="7">
         <v>0</v>
@@ -2060,10 +2060,10 @@
         <v>31</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F43" s="7">
-        <v>-10000</v>
+        <v>-0.25</v>
       </c>
       <c r="G43" s="7">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>31</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F44" s="7">
-        <v>-40000</v>
+        <v>-0.25</v>
       </c>
       <c r="G44" s="7">
         <v>0</v>
@@ -2112,10 +2112,10 @@
         <v>31</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F45" s="7">
-        <v>-100000</v>
+        <v>-0.25</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25860B1-5E11-425B-8BED-01241ADC8375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD375FF-715E-4131-A312-F7132E6DB4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="124">
   <si>
     <t>##var</t>
   </si>
@@ -439,12 +439,48 @@
   <si>
     <t>DamageUnit_HitterCurHpPercent_TowerScorpio3</t>
   </si>
+  <si>
+    <t>DamageUnit_Monster_Heal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_TowerRocket1</t>
+  </si>
+  <si>
+    <t>DamageUnit_TowerRocket2</t>
+  </si>
+  <si>
+    <t>DamageUnit_TowerRocket3</t>
+  </si>
+  <si>
+    <t>按照属性进行计算（距离递增）_火箭塔LV1</t>
+  </si>
+  <si>
+    <t>按照属性进行计算（距离递增）_火箭塔LV2</t>
+  </si>
+  <si>
+    <t>按照属性进行计算（距离递增）_火箭塔LV3</t>
+  </si>
+  <si>
+    <t>DamageUnit_Attribute_TowerGolem1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_Attribute_TowerGolem2</t>
+  </si>
+  <si>
+    <t>DamageUnit_Attribute_TowerGolem3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +530,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -597,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -623,6 +666,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -641,7 +685,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -933,13 +987,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -968,14 +1022,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1036,14 +1090,14 @@
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1268,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>-140</v>
+        <v>-70</v>
       </c>
       <c r="J10" s="7">
         <v>700</v>
@@ -1300,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>-140</v>
+        <v>-70</v>
       </c>
       <c r="J11" s="7">
         <v>700</v>
@@ -1332,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>-140</v>
+        <v>-70</v>
       </c>
       <c r="J12" s="7">
         <v>700</v>
@@ -1454,25 +1508,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>47</v>
+      </c>
+      <c r="H17" s="7">
+        <v>700</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="18" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
-        <v>57</v>
+      <c r="B18" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I18" s="7">
         <v>0</v>
@@ -1482,23 +1561,23 @@
       </c>
     </row>
     <row r="19" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
-        <v>58</v>
+      <c r="B19" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" s="7">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="G19" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I19" s="7">
         <v>0</v>
@@ -1508,40 +1587,17 @@
       </c>
     </row>
     <row r="20" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>65</v>
+      <c r="B21" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7">
         <v>-0.25</v>
@@ -1559,41 +1615,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="22" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F23" s="7">
         <v>-0.25</v>
@@ -1613,13 +1644,13 @@
     </row>
     <row r="24" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F24" s="7">
         <v>-0.25</v>
@@ -1639,13 +1670,13 @@
     </row>
     <row r="25" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F25" s="7">
         <v>-0.25</v>
@@ -1663,16 +1694,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="27" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F27" s="7">
         <v>-0.25</v>
@@ -1692,13 +1748,13 @@
     </row>
     <row r="28" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F28" s="7">
         <v>-0.25</v>
@@ -1718,13 +1774,13 @@
     </row>
     <row r="29" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F29" s="7">
         <v>-0.25</v>
@@ -1744,13 +1800,13 @@
     </row>
     <row r="30" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F30" s="7">
         <v>-0.25</v>
@@ -1768,41 +1824,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="31" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F32" s="7">
         <v>-0.25</v>
@@ -1822,13 +1853,13 @@
     </row>
     <row r="33" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F33" s="7">
         <v>-0.25</v>
@@ -1846,19 +1877,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="35" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F35" s="7">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="G35" s="7">
         <v>0</v>
@@ -1875,16 +1931,16 @@
     </row>
     <row r="36" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F36" s="7">
-        <v>5</v>
+        <v>-0.25</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
@@ -1901,16 +1957,16 @@
     </row>
     <row r="37" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F37" s="7">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="G37" s="7">
         <v>0</v>
@@ -1927,16 +1983,16 @@
     </row>
     <row r="38" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="7">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
@@ -1951,44 +2007,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="7">
-        <v>10</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="39" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="8" t="s">
-        <v>109</v>
+      <c r="B40" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F40" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G40" s="7">
         <v>0</v>
@@ -2005,13 +2036,16 @@
     </row>
     <row r="41" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="F41" s="7">
+        <v>5</v>
       </c>
       <c r="G41" s="7">
         <v>0</v>
@@ -2028,16 +2062,16 @@
     </row>
     <row r="42" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F42" s="7">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="G42" s="7">
         <v>0</v>
@@ -2054,16 +2088,16 @@
     </row>
     <row r="43" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F43" s="7">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="G43" s="7">
         <v>0</v>
@@ -2080,16 +2114,16 @@
     </row>
     <row r="44" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F44" s="7">
-        <v>-0.25</v>
+        <v>10</v>
       </c>
       <c r="G44" s="7">
         <v>0</v>
@@ -2105,17 +2139,17 @@
       </c>
     </row>
     <row r="45" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="7" t="s">
-        <v>82</v>
+      <c r="B45" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F45" s="7">
-        <v>-0.25</v>
+        <v>10</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
@@ -2132,16 +2166,13 @@
     </row>
     <row r="46" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" s="7">
-        <v>0.05</v>
+        <v>30</v>
       </c>
       <c r="G46" s="7">
         <v>0</v>
@@ -2158,16 +2189,16 @@
     </row>
     <row r="47" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F47" s="7">
-        <v>0.05</v>
+        <v>-0.25</v>
       </c>
       <c r="G47" s="7">
         <v>0</v>
@@ -2184,16 +2215,16 @@
     </row>
     <row r="48" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48" s="7">
-        <v>0.05</v>
+        <v>-0.25</v>
       </c>
       <c r="G48" s="7">
         <v>0</v>
@@ -2210,16 +2241,16 @@
     </row>
     <row r="49" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F49" s="7">
-        <v>3.7499999999999999E-2</v>
+        <v>-0.25</v>
       </c>
       <c r="G49" s="7">
         <v>0</v>
@@ -2236,16 +2267,16 @@
     </row>
     <row r="50" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F50" s="7">
-        <v>3.7499999999999999E-2</v>
+        <v>-0.25</v>
       </c>
       <c r="G50" s="7">
         <v>0</v>
@@ -2262,16 +2293,16 @@
     </row>
     <row r="51" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F51" s="7">
-        <v>3.7499999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G51" s="7">
         <v>0</v>
@@ -2286,26 +2317,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="54" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F54" s="7">
-        <v>1</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="G54" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H54" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I54" s="7">
         <v>0</v>
@@ -2316,22 +2397,22 @@
     </row>
     <row r="55" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F55" s="7">
-        <v>1</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="G55" s="7">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="H55" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I55" s="7">
         <v>0</v>
@@ -2342,54 +2423,212 @@
     </row>
     <row r="56" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="7">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="7">
+        <v>1</v>
+      </c>
+      <c r="G59" s="7">
+        <v>10</v>
+      </c>
+      <c r="H59" s="7">
+        <v>40</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7">
+        <v>-10</v>
+      </c>
+      <c r="H60" s="7">
+        <v>40</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F61" s="7">
         <v>1</v>
       </c>
-      <c r="G56" s="7">
-        <v>0</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
         <v>10</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J61" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="7" t="s">
+    <row r="62" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E62" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F62" s="7">
         <v>1</v>
       </c>
-      <c r="G57" s="7">
-        <v>0</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
         <v>-10</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J62" s="7">
         <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7">
+        <v>-93</v>
+      </c>
+      <c r="H64" s="7">
+        <v>700</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="7">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7">
+        <v>-93</v>
+      </c>
+      <c r="H65" s="7">
+        <v>700</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7">
+        <v>-93</v>
+      </c>
+      <c r="H66" s="7">
+        <v>700</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2398,11 +2637,14 @@
     <mergeCell ref="E3:J3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="B17:B19">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:B1048576 B1:B26">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="B32:B38">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:B63 B1:B16 B20 B22:B31 B67:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD375FF-715E-4131-A312-F7132E6DB4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261FF1C6-E5D6-482B-883A-AEF64EC7F5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
   <si>
     <t>##var</t>
   </si>
@@ -430,10 +433,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DamageUnit_HitterCurHpPercent_TowerScorpio1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DamageUnit_HitterCurHpPercent_TowerScorpio2</t>
   </si>
   <si>
@@ -466,14 +465,34 @@
     <t>按照属性进行计算（距离递增）_火箭塔LV3</t>
   </si>
   <si>
+    <t>DamageUnit_Attribute_TowerGolem2</t>
+  </si>
+  <si>
+    <t>DamageUnit_Attribute_TowerGolem3</t>
+  </si>
+  <si>
     <t>DamageUnit_Attribute_TowerGolem1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageUnit_Attribute_TowerGolem2</t>
-  </si>
-  <si>
-    <t>DamageUnit_Attribute_TowerGolem3</t>
+  </si>
+  <si>
+    <t>按照属性进行计算（距离递减）_魔像LV1</t>
+  </si>
+  <si>
+    <t>魔像</t>
+  </si>
+  <si>
+    <t>按照属性进行计算（距离递减）_魔像LV2</t>
+  </si>
+  <si>
+    <t>按照属性进行计算（距离递减）_魔像LV3</t>
+  </si>
+  <si>
+    <t>DamageUnit_HitterCurHpPercent_TowerScorpio1</t>
+  </si>
+  <si>
+    <t>火箭塔</t>
+  </si>
+  <si>
+    <t>毒蝎塔</t>
   </si>
 </sst>
 </file>
@@ -727,6 +746,994 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="防御塔"/>
+      <sheetName val="怪物"/>
+      <sheetName val="无限模式"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>名字</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>稀有度</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>性价比</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>价格</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>dps</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>特色</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>攻击LV1</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>攻击LV2</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>攻击LV3</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>技能cd</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>目标数量</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>射程</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>特殊参数</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>参数1</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>参数2</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>参数3</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>参数4</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>LV1攻击</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>LV2攻击</v>
+          </cell>
+          <cell r="T1" t="str">
+            <v>LV3攻击</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>弩箭塔</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+          <cell r="D2">
+            <v>100</v>
+          </cell>
+          <cell r="E2">
+            <v>100</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>快速</v>
+          </cell>
+          <cell r="G2">
+            <v>50</v>
+          </cell>
+          <cell r="H2">
+            <v>225</v>
+          </cell>
+          <cell r="I2">
+            <v>1012</v>
+          </cell>
+          <cell r="J2">
+            <v>0.5</v>
+          </cell>
+          <cell r="K2">
+            <v>1</v>
+          </cell>
+          <cell r="L2">
+            <v>9</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>3级暴击率/爆伤</v>
+          </cell>
+          <cell r="N2">
+            <v>0.15</v>
+          </cell>
+          <cell r="O2">
+            <v>2</v>
+          </cell>
+          <cell r="R2">
+            <v>1</v>
+          </cell>
+          <cell r="S2">
+            <v>4.5</v>
+          </cell>
+          <cell r="T2">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>加农炮</v>
+          </cell>
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+          <cell r="D3">
+            <v>100</v>
+          </cell>
+          <cell r="E3">
+            <v>100</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>快速</v>
+          </cell>
+          <cell r="G3">
+            <v>17</v>
+          </cell>
+          <cell r="H3">
+            <v>76</v>
+          </cell>
+          <cell r="I3">
+            <v>344</v>
+          </cell>
+          <cell r="J3">
+            <v>0.5</v>
+          </cell>
+          <cell r="K3">
+            <v>3</v>
+          </cell>
+          <cell r="L3">
+            <v>9</v>
+          </cell>
+          <cell r="R3">
+            <v>1</v>
+          </cell>
+          <cell r="S3">
+            <v>4.5</v>
+          </cell>
+          <cell r="T3">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>火焰塔</v>
+          </cell>
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>200</v>
+          </cell>
+          <cell r="E4">
+            <v>200</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>灼烧</v>
+          </cell>
+          <cell r="G4">
+            <v>9</v>
+          </cell>
+          <cell r="H4">
+            <v>40</v>
+          </cell>
+          <cell r="I4">
+            <v>182</v>
+          </cell>
+          <cell r="J4">
+            <v>0.3</v>
+          </cell>
+          <cell r="K4">
+            <v>5</v>
+          </cell>
+          <cell r="L4">
+            <v>9</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>3级灼烧总伤害/总时间/间隔/输出补正</v>
+          </cell>
+          <cell r="N4">
+            <v>0.5</v>
+          </cell>
+          <cell r="O4">
+            <v>10</v>
+          </cell>
+          <cell r="P4">
+            <v>0.3</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.75</v>
+          </cell>
+          <cell r="R4">
+            <v>1</v>
+          </cell>
+          <cell r="S4">
+            <v>4.5</v>
+          </cell>
+          <cell r="T4">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>毒雾塔</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>100</v>
+          </cell>
+          <cell r="E5">
+            <v>100</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>远处加成</v>
+          </cell>
+          <cell r="G5">
+            <v>3</v>
+          </cell>
+          <cell r="H5">
+            <v>13</v>
+          </cell>
+          <cell r="I5">
+            <v>60</v>
+          </cell>
+          <cell r="J5">
+            <v>0.3</v>
+          </cell>
+          <cell r="K5">
+            <v>7</v>
+          </cell>
+          <cell r="L5">
+            <v>9</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>远处增伤率</v>
+          </cell>
+          <cell r="N5">
+            <v>0.06</v>
+          </cell>
+          <cell r="R5">
+            <v>1</v>
+          </cell>
+          <cell r="S5">
+            <v>4.5</v>
+          </cell>
+          <cell r="T5">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>龙击炮</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6">
+            <v>150</v>
+          </cell>
+          <cell r="E6">
+            <v>150</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>蓄力</v>
+          </cell>
+          <cell r="G6">
+            <v>300</v>
+          </cell>
+          <cell r="H6">
+            <v>1350</v>
+          </cell>
+          <cell r="I6">
+            <v>3037</v>
+          </cell>
+          <cell r="J6">
+            <v>2</v>
+          </cell>
+          <cell r="K6">
+            <v>1</v>
+          </cell>
+          <cell r="L6">
+            <v>9</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>3级目标</v>
+          </cell>
+          <cell r="N6">
+            <v>2</v>
+          </cell>
+          <cell r="R6">
+            <v>1</v>
+          </cell>
+          <cell r="S6">
+            <v>4.5</v>
+          </cell>
+          <cell r="T6">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>雷电塔</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>200</v>
+          </cell>
+          <cell r="E7">
+            <v>200</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>高处加成</v>
+          </cell>
+          <cell r="G7">
+            <v>133</v>
+          </cell>
+          <cell r="H7">
+            <v>598</v>
+          </cell>
+          <cell r="I7">
+            <v>538</v>
+          </cell>
+          <cell r="J7">
+            <v>1</v>
+          </cell>
+          <cell r="K7">
+            <v>1</v>
+          </cell>
+          <cell r="L7">
+            <v>7.5</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>低处增伤率，3级目标，加成高度</v>
+          </cell>
+          <cell r="N7">
+            <v>0.1</v>
+          </cell>
+          <cell r="O7">
+            <v>2</v>
+          </cell>
+          <cell r="P7">
+            <v>5</v>
+          </cell>
+          <cell r="R7">
+            <v>1</v>
+          </cell>
+          <cell r="S7">
+            <v>4.5</v>
+          </cell>
+          <cell r="T7">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>冰魔塔</v>
+          </cell>
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>100</v>
+          </cell>
+          <cell r="E8">
+            <v>100</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>减速</v>
+          </cell>
+          <cell r="G8">
+            <v>33</v>
+          </cell>
+          <cell r="H8">
+            <v>148</v>
+          </cell>
+          <cell r="I8">
+            <v>668</v>
+          </cell>
+          <cell r="J8">
+            <v>1</v>
+          </cell>
+          <cell r="K8">
+            <v>3</v>
+          </cell>
+          <cell r="L8">
+            <v>7.5</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>减速率lv1/2/3</v>
+          </cell>
+          <cell r="N8">
+            <v>0.25</v>
+          </cell>
+          <cell r="O8">
+            <v>0.4</v>
+          </cell>
+          <cell r="P8">
+            <v>0.5</v>
+          </cell>
+          <cell r="R8">
+            <v>1</v>
+          </cell>
+          <cell r="S8">
+            <v>4.5</v>
+          </cell>
+          <cell r="T8">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>炼金塔</v>
+          </cell>
+          <cell r="B9">
+            <v>2</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>150</v>
+          </cell>
+          <cell r="E9">
+            <v>150</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>生产金币</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>每回合金币</v>
+          </cell>
+          <cell r="N9">
+            <v>30</v>
+          </cell>
+          <cell r="O9">
+            <v>120</v>
+          </cell>
+          <cell r="P9">
+            <v>480</v>
+          </cell>
+          <cell r="R9">
+            <v>1</v>
+          </cell>
+          <cell r="S9">
+            <v>4.5</v>
+          </cell>
+          <cell r="T9">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>加速塔</v>
+          </cell>
+          <cell r="B10">
+            <v>1</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="D10">
+            <v>100</v>
+          </cell>
+          <cell r="E10">
+            <v>100</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>加速</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
+          <cell r="K10">
+            <v>0</v>
+          </cell>
+          <cell r="L10">
+            <v>7.5</v>
+          </cell>
+          <cell r="M10" t="str">
+            <v>CD减少lv1/2/3</v>
+          </cell>
+          <cell r="N10">
+            <v>0.3</v>
+          </cell>
+          <cell r="O10">
+            <v>0.5</v>
+          </cell>
+          <cell r="P10">
+            <v>0.6</v>
+          </cell>
+          <cell r="R10">
+            <v>1</v>
+          </cell>
+          <cell r="S10">
+            <v>4.5</v>
+          </cell>
+          <cell r="T10">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>毒蝎塔</v>
+          </cell>
+          <cell r="B11">
+            <v>2</v>
+          </cell>
+          <cell r="C11">
+            <v>1</v>
+          </cell>
+          <cell r="D11">
+            <v>150</v>
+          </cell>
+          <cell r="E11">
+            <v>150</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>中毒</v>
+          </cell>
+          <cell r="G11">
+            <v>75</v>
+          </cell>
+          <cell r="H11">
+            <v>337</v>
+          </cell>
+          <cell r="I11">
+            <v>1518</v>
+          </cell>
+          <cell r="J11">
+            <v>1</v>
+          </cell>
+          <cell r="K11">
+            <v>1</v>
+          </cell>
+          <cell r="L11">
+            <v>9</v>
+          </cell>
+          <cell r="M11" t="str">
+            <v>毒伤lv1/2/3/输出补正</v>
+          </cell>
+          <cell r="N11">
+            <v>0.01</v>
+          </cell>
+          <cell r="O11">
+            <v>0.02</v>
+          </cell>
+          <cell r="P11">
+            <v>0.03</v>
+          </cell>
+          <cell r="Q11">
+            <v>0.5</v>
+          </cell>
+          <cell r="R11">
+            <v>1</v>
+          </cell>
+          <cell r="S11">
+            <v>4.5</v>
+          </cell>
+          <cell r="T11">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>炸弹</v>
+          </cell>
+          <cell r="B12">
+            <v>3</v>
+          </cell>
+          <cell r="C12">
+            <v>1</v>
+          </cell>
+          <cell r="D12">
+            <v>200</v>
+          </cell>
+          <cell r="E12">
+            <v>200</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>消耗型</v>
+          </cell>
+          <cell r="G12">
+            <v>2000</v>
+          </cell>
+          <cell r="H12">
+            <v>9000</v>
+          </cell>
+          <cell r="I12">
+            <v>40500</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>7.5</v>
+          </cell>
+          <cell r="M12" t="str">
+            <v>伤害/眩晕</v>
+          </cell>
+          <cell r="N12">
+            <v>2000</v>
+          </cell>
+          <cell r="O12">
+            <v>3</v>
+          </cell>
+          <cell r="R12">
+            <v>1</v>
+          </cell>
+          <cell r="S12">
+            <v>4.5</v>
+          </cell>
+          <cell r="T12">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>哥布林</v>
+          </cell>
+          <cell r="B13">
+            <v>1</v>
+          </cell>
+          <cell r="C13">
+            <v>1</v>
+          </cell>
+          <cell r="D13">
+            <v>100</v>
+          </cell>
+          <cell r="E13">
+            <v>100</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>偷金币</v>
+          </cell>
+          <cell r="G13">
+            <v>50</v>
+          </cell>
+          <cell r="H13">
+            <v>225</v>
+          </cell>
+          <cell r="I13">
+            <v>1012</v>
+          </cell>
+          <cell r="J13">
+            <v>1</v>
+          </cell>
+          <cell r="K13">
+            <v>1</v>
+          </cell>
+          <cell r="L13">
+            <v>7.5</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>偷钱数lv1/2/3/输出补正</v>
+          </cell>
+          <cell r="N13">
+            <v>1</v>
+          </cell>
+          <cell r="O13">
+            <v>4</v>
+          </cell>
+          <cell r="P13">
+            <v>15</v>
+          </cell>
+          <cell r="Q13">
+            <v>0.5</v>
+          </cell>
+          <cell r="R13">
+            <v>1</v>
+          </cell>
+          <cell r="S13">
+            <v>4.5</v>
+          </cell>
+          <cell r="T13">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>火箭塔</v>
+          </cell>
+          <cell r="B14">
+            <v>2</v>
+          </cell>
+          <cell r="C14">
+            <v>1</v>
+          </cell>
+          <cell r="D14">
+            <v>150</v>
+          </cell>
+          <cell r="E14">
+            <v>150</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>抛物线</v>
+          </cell>
+          <cell r="G14">
+            <v>65</v>
+          </cell>
+          <cell r="H14">
+            <v>292</v>
+          </cell>
+          <cell r="I14">
+            <v>1316</v>
+          </cell>
+          <cell r="J14">
+            <v>2</v>
+          </cell>
+          <cell r="K14">
+            <v>3</v>
+          </cell>
+          <cell r="L14">
+            <v>9</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>远处增伤率lv1/2/3</v>
+          </cell>
+          <cell r="N14">
+            <v>0.06</v>
+          </cell>
+          <cell r="R14">
+            <v>1</v>
+          </cell>
+          <cell r="S14">
+            <v>4.5</v>
+          </cell>
+          <cell r="T14">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>魔像</v>
+          </cell>
+          <cell r="B15">
+            <v>2</v>
+          </cell>
+          <cell r="C15">
+            <v>1</v>
+          </cell>
+          <cell r="D15">
+            <v>150</v>
+          </cell>
+          <cell r="E15">
+            <v>150</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>击退</v>
+          </cell>
+          <cell r="G15">
+            <v>100</v>
+          </cell>
+          <cell r="H15">
+            <v>450</v>
+          </cell>
+          <cell r="I15">
+            <v>2025</v>
+          </cell>
+          <cell r="J15">
+            <v>2</v>
+          </cell>
+          <cell r="K15">
+            <v>3</v>
+          </cell>
+          <cell r="L15">
+            <v>7.5</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>近处增伤率lv1/2/3；眩晕时间</v>
+          </cell>
+          <cell r="N15">
+            <v>-7.0000000000000007E-2</v>
+          </cell>
+          <cell r="O15">
+            <v>1</v>
+          </cell>
+          <cell r="R15">
+            <v>1</v>
+          </cell>
+          <cell r="S15">
+            <v>4.5</v>
+          </cell>
+          <cell r="T15">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>水晶</v>
+          </cell>
+          <cell r="B16">
+            <v>2</v>
+          </cell>
+          <cell r="C16">
+            <v>1</v>
+          </cell>
+          <cell r="D16">
+            <v>150</v>
+          </cell>
+          <cell r="E16">
+            <v>150</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>穿透</v>
+          </cell>
+          <cell r="G16">
+            <v>100</v>
+          </cell>
+          <cell r="H16">
+            <v>450</v>
+          </cell>
+          <cell r="I16">
+            <v>2025</v>
+          </cell>
+          <cell r="J16">
+            <v>2</v>
+          </cell>
+          <cell r="K16">
+            <v>3</v>
+          </cell>
+          <cell r="L16">
+            <v>7.5</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>3级射程</v>
+          </cell>
+          <cell r="N16">
+            <v>15</v>
+          </cell>
+          <cell r="R16">
+            <v>1</v>
+          </cell>
+          <cell r="S16">
+            <v>4.5</v>
+          </cell>
+          <cell r="T16">
+            <v>20.25</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>奥术天球</v>
+          </cell>
+          <cell r="B17">
+            <v>2</v>
+          </cell>
+          <cell r="C17">
+            <v>1</v>
+          </cell>
+          <cell r="D17">
+            <v>150</v>
+          </cell>
+          <cell r="E17">
+            <v>150</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>多弹道</v>
+          </cell>
+          <cell r="G17">
+            <v>50</v>
+          </cell>
+          <cell r="H17">
+            <v>225</v>
+          </cell>
+          <cell r="I17">
+            <v>1518</v>
+          </cell>
+          <cell r="J17">
+            <v>2</v>
+          </cell>
+          <cell r="K17">
+            <v>1</v>
+          </cell>
+          <cell r="L17">
+            <v>9</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>1、2级弹药/3级弹药</v>
+          </cell>
+          <cell r="N17">
+            <v>6</v>
+          </cell>
+          <cell r="O17">
+            <v>9</v>
+          </cell>
+          <cell r="R17">
+            <v>1</v>
+          </cell>
+          <cell r="S17">
+            <v>4.5</v>
+          </cell>
+          <cell r="T17">
+            <v>20.25</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -987,13 +1994,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T66"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1220,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="H7" s="7">
-        <v>700</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1252,10 +2259,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="H8" s="7">
-        <v>700</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1287,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="7">
-        <v>700</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1322,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>-70</v>
+        <v>-10</v>
       </c>
       <c r="J10" s="7">
-        <v>700</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>103</v>
@@ -1354,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>-70</v>
+        <v>-10</v>
       </c>
       <c r="J11" s="7">
-        <v>700</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>103</v>
@@ -1386,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>-70</v>
+        <v>-10</v>
       </c>
       <c r="J12" s="7">
-        <v>700</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>103</v>
@@ -1432,7 +2439,7 @@
     </row>
     <row r="14" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>22</v>
@@ -1441,6 +2448,7 @@
         <v>27</v>
       </c>
       <c r="F14" s="7">
+        <f>VLOOKUP(K14,[1]防御塔!$A:$T,13+L14,FALSE)</f>
         <v>0.01</v>
       </c>
       <c r="G14" s="7">
@@ -1454,11 +2462,17 @@
       </c>
       <c r="J14" s="7">
         <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>22</v>
@@ -1467,6 +2481,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="7">
+        <f>VLOOKUP(K15,[1]防御塔!$A:$T,13+L15,FALSE)</f>
         <v>0.02</v>
       </c>
       <c r="G15" s="7">
@@ -1480,11 +2495,17 @@
       </c>
       <c r="J15" s="7">
         <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>22</v>
@@ -1493,6 +2514,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="7">
+        <f>VLOOKUP(K16,[1]防御塔!$A:$T,13+L16,FALSE)</f>
         <v>0.03</v>
       </c>
       <c r="G16" s="7">
@@ -1507,13 +2529,19 @@
       <c r="J16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>28</v>
@@ -1522,10 +2550,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="7">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="H17" s="7">
-        <v>700</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="I17" s="7">
         <v>0</v>
@@ -1533,13 +2561,19 @@
       <c r="J17" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -1548,10 +2582,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="7">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="H18" s="7">
-        <v>700</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="I18" s="7">
         <v>0</v>
@@ -1559,13 +2593,19 @@
       <c r="J18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>28</v>
@@ -1574,10 +2614,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="7">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="H19" s="7">
-        <v>700</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="I19" s="7">
         <v>0</v>
@@ -1585,72 +2625,121 @@
       <c r="J19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>-7.0000000000000009</v>
+      </c>
+      <c r="H20" s="7">
+        <v>50.000000000000021</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>-7.0000000000000009</v>
+      </c>
+      <c r="H21" s="7">
+        <v>50.000000000000021</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>-7.0000000000000009</v>
+      </c>
+      <c r="H22" s="7">
+        <v>50.000000000000021</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" s="7">
         <v>-0.25</v>
@@ -1668,41 +2757,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="7">
         <v>-0.25</v>
@@ -1720,15 +2784,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27" s="7">
         <v>-0.25</v>
@@ -1746,15 +2810,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="7">
         <v>-0.25</v>
@@ -1772,15 +2836,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" s="7">
         <v>-0.25</v>
@@ -1798,15 +2862,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F30" s="7">
         <v>-0.25</v>
@@ -1824,16 +2888,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F32" s="7">
         <v>-0.25</v>
@@ -1853,13 +2942,13 @@
     </row>
     <row r="33" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="7">
         <v>-0.25</v>
@@ -1877,41 +2966,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="34" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F35" s="7">
         <v>-0.25</v>
@@ -1931,13 +2995,13 @@
     </row>
     <row r="36" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F36" s="7">
         <v>-0.25</v>
@@ -1957,13 +3021,13 @@
     </row>
     <row r="37" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F37" s="7">
         <v>-0.25</v>
@@ -1983,13 +3047,13 @@
     </row>
     <row r="38" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F38" s="7">
         <v>-0.25</v>
@@ -2007,19 +3071,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="40" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F40" s="7">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="G40" s="7">
         <v>0</v>
@@ -2036,16 +3125,16 @@
     </row>
     <row r="41" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F41" s="7">
-        <v>5</v>
+        <v>-0.25</v>
       </c>
       <c r="G41" s="7">
         <v>0</v>
@@ -2060,44 +3149,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="7">
-        <v>2</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="42" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F43" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" s="7">
         <v>0</v>
@@ -2114,16 +3178,16 @@
     </row>
     <row r="44" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F44" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G44" s="7">
         <v>0</v>
@@ -2139,17 +3203,17 @@
       </c>
     </row>
     <row r="45" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="8" t="s">
-        <v>109</v>
+      <c r="B45" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F45" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
@@ -2166,13 +3230,16 @@
     </row>
     <row r="46" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="F46" s="7">
+        <v>2</v>
       </c>
       <c r="G46" s="7">
         <v>0</v>
@@ -2189,16 +3256,16 @@
     </row>
     <row r="47" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F47" s="7">
-        <v>-0.25</v>
+        <v>10</v>
       </c>
       <c r="G47" s="7">
         <v>0</v>
@@ -2214,17 +3281,17 @@
       </c>
     </row>
     <row r="48" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="7" t="s">
-        <v>80</v>
+      <c r="B48" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F48" s="7">
-        <v>-0.25</v>
+        <v>10</v>
       </c>
       <c r="G48" s="7">
         <v>0</v>
@@ -2241,16 +3308,13 @@
     </row>
     <row r="49" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="7">
-        <v>-0.25</v>
+        <v>30</v>
       </c>
       <c r="G49" s="7">
         <v>0</v>
@@ -2267,7 +3331,7 @@
     </row>
     <row r="50" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>31</v>
@@ -2293,16 +3357,16 @@
     </row>
     <row r="51" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F51" s="7">
-        <v>0.05</v>
+        <v>-0.25</v>
       </c>
       <c r="G51" s="7">
         <v>0</v>
@@ -2319,16 +3383,16 @@
     </row>
     <row r="52" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F52" s="7">
-        <v>0.05</v>
+        <v>-0.25</v>
       </c>
       <c r="G52" s="7">
         <v>0</v>
@@ -2345,16 +3409,16 @@
     </row>
     <row r="53" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F53" s="7">
-        <v>0.05</v>
+        <v>-0.25</v>
       </c>
       <c r="G53" s="7">
         <v>0</v>
@@ -2371,16 +3435,16 @@
     </row>
     <row r="54" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="7">
-        <v>3.7499999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G54" s="7">
         <v>0</v>
@@ -2397,16 +3461,16 @@
     </row>
     <row r="55" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F55" s="7">
-        <v>3.7499999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G55" s="7">
         <v>0</v>
@@ -2423,50 +3487,100 @@
     </row>
     <row r="56" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="G56" s="7">
-        <v>0</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="7">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="59" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F59" s="7">
-        <v>1</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="G59" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H59" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I59" s="7">
         <v>0</v>
@@ -2475,64 +3589,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="7">
-        <v>1</v>
-      </c>
-      <c r="G60" s="7">
-        <v>-10</v>
-      </c>
-      <c r="H60" s="7">
-        <v>40</v>
-      </c>
-      <c r="I60" s="7">
-        <v>0</v>
-      </c>
-      <c r="J60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="7">
-        <v>1</v>
-      </c>
-      <c r="G61" s="7">
-        <v>0</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>10</v>
-      </c>
-      <c r="J61" s="7">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="60" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>38</v>
@@ -2541,24 +3605,50 @@
         <v>1</v>
       </c>
       <c r="G62" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H62" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="7">
+        <v>1</v>
+      </c>
+      <c r="G63" s="7">
         <v>-10</v>
       </c>
-      <c r="J62" s="7">
+      <c r="H63" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="9" t="s">
-        <v>121</v>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>38</v>
@@ -2567,24 +3657,24 @@
         <v>1</v>
       </c>
       <c r="G64" s="7">
-        <v>-93</v>
+        <v>0</v>
       </c>
       <c r="H64" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J64" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="9" t="s">
-        <v>122</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>38</v>
@@ -2593,42 +3683,16 @@
         <v>1</v>
       </c>
       <c r="G65" s="7">
-        <v>-93</v>
+        <v>0</v>
       </c>
       <c r="H65" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J65" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="7">
-        <v>1</v>
-      </c>
-      <c r="G66" s="7">
-        <v>-93</v>
-      </c>
-      <c r="H66" s="7">
-        <v>700</v>
-      </c>
-      <c r="I66" s="7">
-        <v>0</v>
-      </c>
-      <c r="J66" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2640,10 +3704,10 @@
   <conditionalFormatting sqref="B17:B19">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B38">
+  <conditionalFormatting sqref="B35:B41">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B63 B1:B16 B20 B22:B31 B67:B1048576">
+  <conditionalFormatting sqref="B42:B1048576 B1:B16 B23 B25:B34">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261FF1C6-E5D6-482B-883A-AEF64EC7F5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D442B52-2588-467B-84EB-FC107CDCAFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,6 +758,8 @@
       <sheetName val="防御塔"/>
       <sheetName val="怪物"/>
       <sheetName val="无限模式"/>
+      <sheetName val="挑战模式"/>
+      <sheetName val="参考"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -993,28 +995,28 @@
             <v>毒雾塔</v>
           </cell>
           <cell r="B5">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="C5">
             <v>1</v>
           </cell>
           <cell r="D5">
-            <v>100</v>
+            <v>150</v>
           </cell>
           <cell r="E5">
-            <v>100</v>
+            <v>150</v>
           </cell>
           <cell r="F5" t="str">
             <v>远处加成</v>
           </cell>
           <cell r="G5">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="H5">
-            <v>13</v>
+            <v>18</v>
           </cell>
           <cell r="I5">
-            <v>60</v>
+            <v>81</v>
           </cell>
           <cell r="J5">
             <v>0.3</v>
@@ -1403,10 +1405,10 @@
             <v>1</v>
           </cell>
           <cell r="D12">
-            <v>200</v>
+            <v>70</v>
           </cell>
           <cell r="E12">
-            <v>200</v>
+            <v>70</v>
           </cell>
           <cell r="F12" t="str">
             <v>消耗型</v>
@@ -1731,6 +1733,8 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1997,10 +2001,10 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14:F16"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2742,7 +2746,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -2769,7 +2773,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -2795,7 +2799,7 @@
         <v>21</v>
       </c>
       <c r="F27" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -2821,7 +2825,7 @@
         <v>21</v>
       </c>
       <c r="F28" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -2847,7 +2851,7 @@
         <v>21</v>
       </c>
       <c r="F29" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -2873,7 +2877,7 @@
         <v>21</v>
       </c>
       <c r="F30" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -2899,7 +2903,7 @@
         <v>21</v>
       </c>
       <c r="F31" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -2925,7 +2929,7 @@
         <v>21</v>
       </c>
       <c r="F32" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -2951,7 +2955,7 @@
         <v>21</v>
       </c>
       <c r="F33" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
@@ -2978,7 +2982,7 @@
         <v>21</v>
       </c>
       <c r="F35" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G35" s="7">
         <v>0</v>
@@ -3004,7 +3008,7 @@
         <v>21</v>
       </c>
       <c r="F36" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
@@ -3030,7 +3034,7 @@
         <v>21</v>
       </c>
       <c r="F37" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G37" s="7">
         <v>0</v>
@@ -3056,7 +3060,7 @@
         <v>21</v>
       </c>
       <c r="F38" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
@@ -3082,7 +3086,7 @@
         <v>21</v>
       </c>
       <c r="F39" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G39" s="7">
         <v>0</v>
@@ -3108,7 +3112,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G40" s="7">
         <v>0</v>
@@ -3134,7 +3138,7 @@
         <v>21</v>
       </c>
       <c r="F41" s="7">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G41" s="7">
         <v>0</v>
@@ -3187,7 +3191,7 @@
         <v>18</v>
       </c>
       <c r="F44" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G44" s="7">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D442B52-2588-467B-84EB-FC107CDCAFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116B7441-F5D3-4540-B9B6-8FDC8214D0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
   <si>
     <t>##var</t>
   </si>
@@ -493,6 +506,38 @@
   </si>
   <si>
     <t>毒蝎塔</t>
+  </si>
+  <si>
+    <t>DamageUnit_PlayerSkill_BreakArmor_Hit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_IceBind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_PlayerSkill_IceBind_Hit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -659,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -697,6 +742,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -757,8 +811,10 @@
     <sheetNames>
       <sheetName val="防御塔"/>
       <sheetName val="怪物"/>
+      <sheetName val="技能"/>
       <sheetName val="无限模式"/>
       <sheetName val="挑战模式"/>
+      <sheetName val="引导"/>
       <sheetName val="参考"/>
     </sheetNames>
     <sheetDataSet>
@@ -842,16 +898,16 @@
             <v>100</v>
           </cell>
           <cell r="F2" t="str">
-            <v>快速</v>
+            <v>快速单体，能应对各种情况</v>
           </cell>
           <cell r="G2">
             <v>50</v>
           </cell>
           <cell r="H2">
-            <v>225</v>
+            <v>180</v>
           </cell>
           <cell r="I2">
-            <v>1012</v>
+            <v>648</v>
           </cell>
           <cell r="J2">
             <v>0.5</v>
@@ -875,10 +931,10 @@
             <v>1</v>
           </cell>
           <cell r="S2">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T2">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="3">
@@ -898,16 +954,16 @@
             <v>100</v>
           </cell>
           <cell r="F3" t="str">
-            <v>快速</v>
+            <v>快速群体，能应对各种情况</v>
           </cell>
           <cell r="G3">
             <v>17</v>
           </cell>
           <cell r="H3">
-            <v>76</v>
+            <v>61</v>
           </cell>
           <cell r="I3">
-            <v>344</v>
+            <v>220</v>
           </cell>
           <cell r="J3">
             <v>0.5</v>
@@ -922,10 +978,10 @@
             <v>1</v>
           </cell>
           <cell r="S3">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T3">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="4">
@@ -936,25 +992,25 @@
             <v>3</v>
           </cell>
           <cell r="C4">
-            <v>1</v>
+            <v>1.4</v>
           </cell>
           <cell r="D4">
-            <v>200</v>
+            <v>400</v>
           </cell>
           <cell r="E4">
-            <v>200</v>
+            <v>560</v>
           </cell>
           <cell r="F4" t="str">
-            <v>灼烧</v>
+            <v>直线群体，高级后可灼烧</v>
           </cell>
           <cell r="G4">
-            <v>9</v>
+            <v>17</v>
           </cell>
           <cell r="H4">
-            <v>40</v>
+            <v>61</v>
           </cell>
           <cell r="I4">
-            <v>182</v>
+            <v>220</v>
           </cell>
           <cell r="J4">
             <v>0.3</v>
@@ -978,16 +1034,16 @@
             <v>0.3</v>
           </cell>
           <cell r="Q4">
-            <v>0.75</v>
+            <v>0.5</v>
           </cell>
           <cell r="R4">
             <v>1</v>
           </cell>
           <cell r="S4">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T4">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="5">
@@ -998,25 +1054,25 @@
             <v>2</v>
           </cell>
           <cell r="C5">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D5">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E5">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F5" t="str">
-            <v>远处加成</v>
+            <v>圆形群体</v>
           </cell>
           <cell r="G5">
-            <v>4</v>
+            <v>7</v>
           </cell>
           <cell r="H5">
-            <v>18</v>
+            <v>25</v>
           </cell>
           <cell r="I5">
-            <v>81</v>
+            <v>90</v>
           </cell>
           <cell r="J5">
             <v>0.3</v>
@@ -1037,10 +1093,10 @@
             <v>1</v>
           </cell>
           <cell r="S5">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T5">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="6">
@@ -1051,25 +1107,25 @@
             <v>2</v>
           </cell>
           <cell r="C6">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D6">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E6">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F6" t="str">
-            <v>蓄力</v>
+            <v>慢速单体，单发伤害高</v>
           </cell>
           <cell r="G6">
-            <v>300</v>
+            <v>480</v>
           </cell>
           <cell r="H6">
-            <v>1350</v>
+            <v>1728</v>
           </cell>
           <cell r="I6">
-            <v>3037</v>
+            <v>3110</v>
           </cell>
           <cell r="J6">
             <v>2</v>
@@ -1090,10 +1146,10 @@
             <v>1</v>
           </cell>
           <cell r="S6">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T6">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="7">
@@ -1104,25 +1160,25 @@
             <v>3</v>
           </cell>
           <cell r="C7">
-            <v>1</v>
+            <v>1.4</v>
           </cell>
           <cell r="D7">
-            <v>200</v>
+            <v>400</v>
           </cell>
           <cell r="E7">
-            <v>200</v>
+            <v>560</v>
           </cell>
           <cell r="F7" t="str">
-            <v>高处加成</v>
+            <v>高处加成，单体</v>
           </cell>
           <cell r="G7">
-            <v>133</v>
+            <v>373</v>
           </cell>
           <cell r="H7">
-            <v>598</v>
+            <v>1342</v>
           </cell>
           <cell r="I7">
-            <v>538</v>
+            <v>2417</v>
           </cell>
           <cell r="J7">
             <v>1</v>
@@ -1149,10 +1205,10 @@
             <v>1</v>
           </cell>
           <cell r="S7">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T7">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="8">
@@ -1178,10 +1234,10 @@
             <v>33</v>
           </cell>
           <cell r="H8">
-            <v>148</v>
+            <v>118</v>
           </cell>
           <cell r="I8">
-            <v>668</v>
+            <v>427</v>
           </cell>
           <cell r="J8">
             <v>1</v>
@@ -1208,10 +1264,10 @@
             <v>1</v>
           </cell>
           <cell r="S8">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T8">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="9">
@@ -1222,13 +1278,13 @@
             <v>2</v>
           </cell>
           <cell r="C9">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D9">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E9">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F9" t="str">
             <v>生产金币</v>
@@ -1267,10 +1323,10 @@
             <v>1</v>
           </cell>
           <cell r="S9">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T9">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="10">
@@ -1290,7 +1346,7 @@
             <v>100</v>
           </cell>
           <cell r="F10" t="str">
-            <v>加速</v>
+            <v>加速友军</v>
           </cell>
           <cell r="G10">
             <v>0</v>
@@ -1326,10 +1382,10 @@
             <v>1</v>
           </cell>
           <cell r="S10">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T10">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="11">
@@ -1340,25 +1396,25 @@
             <v>2</v>
           </cell>
           <cell r="C11">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D11">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E11">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F11" t="str">
-            <v>中毒</v>
+            <v>单体，让敌人中毒</v>
           </cell>
           <cell r="G11">
-            <v>75</v>
+            <v>120</v>
           </cell>
           <cell r="H11">
-            <v>337</v>
+            <v>432</v>
           </cell>
           <cell r="I11">
-            <v>1518</v>
+            <v>1555</v>
           </cell>
           <cell r="J11">
             <v>1</v>
@@ -1388,10 +1444,10 @@
             <v>1</v>
           </cell>
           <cell r="S11">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T11">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="12">
@@ -1399,7 +1455,7 @@
             <v>炸弹</v>
           </cell>
           <cell r="B12">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="C12">
             <v>1</v>
@@ -1411,16 +1467,16 @@
             <v>70</v>
           </cell>
           <cell r="F12" t="str">
-            <v>消耗型</v>
+            <v>消耗型，用完造成一次高额伤害</v>
           </cell>
           <cell r="G12">
             <v>2000</v>
           </cell>
           <cell r="H12">
-            <v>9000</v>
+            <v>7200</v>
           </cell>
           <cell r="I12">
-            <v>40500</v>
+            <v>25920</v>
           </cell>
           <cell r="J12">
             <v>0</v>
@@ -1444,10 +1500,10 @@
             <v>1</v>
           </cell>
           <cell r="S12">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T12">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="13">
@@ -1467,16 +1523,16 @@
             <v>100</v>
           </cell>
           <cell r="F13" t="str">
-            <v>偷金币</v>
+            <v>攻击偷金币</v>
           </cell>
           <cell r="G13">
             <v>50</v>
           </cell>
           <cell r="H13">
-            <v>225</v>
+            <v>180</v>
           </cell>
           <cell r="I13">
-            <v>1012</v>
+            <v>648</v>
           </cell>
           <cell r="J13">
             <v>1</v>
@@ -1506,10 +1562,10 @@
             <v>1</v>
           </cell>
           <cell r="S13">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T13">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="14">
@@ -1520,25 +1576,25 @@
             <v>2</v>
           </cell>
           <cell r="C14">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D14">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E14">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F14" t="str">
-            <v>抛物线</v>
+            <v>抛物线群体，打远处伤害高</v>
           </cell>
           <cell r="G14">
-            <v>65</v>
+            <v>104</v>
           </cell>
           <cell r="H14">
-            <v>292</v>
+            <v>374</v>
           </cell>
           <cell r="I14">
-            <v>1316</v>
+            <v>1347</v>
           </cell>
           <cell r="J14">
             <v>2</v>
@@ -1559,10 +1615,10 @@
             <v>1</v>
           </cell>
           <cell r="S14">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T14">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="15">
@@ -1570,28 +1626,28 @@
             <v>魔像</v>
           </cell>
           <cell r="B15">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="C15">
-            <v>1</v>
+            <v>1.4</v>
           </cell>
           <cell r="D15">
-            <v>150</v>
+            <v>400</v>
           </cell>
           <cell r="E15">
-            <v>150</v>
+            <v>560</v>
           </cell>
           <cell r="F15" t="str">
-            <v>击退</v>
+            <v>扇形群体，可击退敌人</v>
           </cell>
           <cell r="G15">
-            <v>100</v>
+            <v>373</v>
           </cell>
           <cell r="H15">
-            <v>450</v>
+            <v>1342</v>
           </cell>
           <cell r="I15">
-            <v>2025</v>
+            <v>4834</v>
           </cell>
           <cell r="J15">
             <v>2</v>
@@ -1615,10 +1671,10 @@
             <v>1</v>
           </cell>
           <cell r="S15">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T15">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="16">
@@ -1629,25 +1685,25 @@
             <v>2</v>
           </cell>
           <cell r="C16">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D16">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E16">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F16" t="str">
-            <v>穿透</v>
+            <v>直线群体，子弹可穿透</v>
           </cell>
           <cell r="G16">
-            <v>100</v>
+            <v>160</v>
           </cell>
           <cell r="H16">
-            <v>450</v>
+            <v>576</v>
           </cell>
           <cell r="I16">
-            <v>2025</v>
+            <v>2073</v>
           </cell>
           <cell r="J16">
             <v>2</v>
@@ -1668,10 +1724,10 @@
             <v>1</v>
           </cell>
           <cell r="S16">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T16">
-            <v>20.25</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="17">
@@ -1679,28 +1735,28 @@
             <v>奥术天球</v>
           </cell>
           <cell r="B17">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="C17">
-            <v>1</v>
+            <v>1.4</v>
           </cell>
           <cell r="D17">
-            <v>150</v>
+            <v>400</v>
           </cell>
           <cell r="E17">
-            <v>150</v>
+            <v>560</v>
           </cell>
           <cell r="F17" t="str">
-            <v>多弹道</v>
+            <v>同时发射多弹道，可单可群</v>
           </cell>
           <cell r="G17">
-            <v>50</v>
+            <v>187</v>
           </cell>
           <cell r="H17">
-            <v>225</v>
+            <v>673</v>
           </cell>
           <cell r="I17">
-            <v>1518</v>
+            <v>1615</v>
           </cell>
           <cell r="J17">
             <v>2</v>
@@ -1724,17 +1780,588 @@
             <v>1</v>
           </cell>
           <cell r="S17">
-            <v>4.5</v>
+            <v>3.6</v>
           </cell>
           <cell r="T17">
-            <v>20.25</v>
+            <v>12.96</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24" t="str">
+            <v>弩箭塔</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>快速单体，能应对各种情况</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25" t="str">
+            <v>加农炮</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>快速群体，能应对各种情况</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26" t="str">
+            <v>火焰塔</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>直线群体，高级后可灼烧</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27" t="str">
+            <v>毒雾塔</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>圆形群体</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28" t="str">
+            <v>龙击炮</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>慢速单体，单发伤害高</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29" t="str">
+            <v>雷电塔</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>高处加成，单体</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30" t="str">
+            <v>冰魔塔</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>减速</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31" t="str">
+            <v>炼金塔</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>生产金币</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32" t="str">
+            <v>加速塔</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>加速友军</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33" t="str">
+            <v>毒蝎塔</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>单体，让敌人中毒</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34" t="str">
+            <v>炸弹</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>消耗型，用完造成一次高额伤害</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35" t="str">
+            <v>哥布林</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>攻击偷金币</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36" t="str">
+            <v>火箭塔</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>抛物线群体，打远处伤害高</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="D37" t="str">
+            <v>魔像</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>扇形群体，可击退敌人</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="D38" t="str">
+            <v>水晶</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>直线群体，子弹可穿透</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="D39" t="str">
+            <v>奥术天球</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>同时发射多弹道，可单可群</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>定位</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>效果</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>名称</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>描述</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>输出收益</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>攻击</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>攻速</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>CD</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>弹匣</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>每秒恢复</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>充满回合</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>解锁价格</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>补充价格</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>PlayerSkill_BreakArmor</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>免费-低技巧-泛用机制-补充便宜</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>减甲弹-小范围群体</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>破甲弹</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>伤害敌方并降低护甲</v>
+          </cell>
+          <cell r="F2">
+            <v>1</v>
+          </cell>
+          <cell r="G2">
+            <v>50</v>
+          </cell>
+          <cell r="H2">
+            <v>1</v>
+          </cell>
+          <cell r="I2">
+            <v>0</v>
+          </cell>
+          <cell r="J2">
+            <v>10</v>
+          </cell>
+          <cell r="K2">
+            <v>99</v>
+          </cell>
+          <cell r="L2">
+            <v>1</v>
+          </cell>
+          <cell r="M2">
+            <v>0</v>
+          </cell>
+          <cell r="N2">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>PlayerSkill_IceBind</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>免费-中技巧-泛用机制-补充便宜</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>冰弹-中范围冻结</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>冰霜漩涡</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>冻结范围内的所有敌人</v>
+          </cell>
+          <cell r="F3">
+            <v>2</v>
+          </cell>
+          <cell r="G3">
+            <v>50</v>
+          </cell>
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+          <cell r="I3">
+            <v>0</v>
+          </cell>
+          <cell r="J3">
+            <v>3</v>
+          </cell>
+          <cell r="K3">
+            <v>99</v>
+          </cell>
+          <cell r="L3">
+            <v>2</v>
+          </cell>
+          <cell r="M3">
+            <v>0</v>
+          </cell>
+          <cell r="N3">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>PlayerSkill_TimeBarrier</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>免费-高技巧-泛用机制-补充便宜</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>时间结界-大范围减速加速</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>时空结界</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>创造结界，敌人大幅减速，友军大幅加速</v>
+          </cell>
+          <cell r="F4">
+            <v>3</v>
+          </cell>
+          <cell r="G4">
+            <v>50</v>
+          </cell>
+          <cell r="H4">
+            <v>1</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>1</v>
+          </cell>
+          <cell r="K4">
+            <v>99</v>
+          </cell>
+          <cell r="L4">
+            <v>3</v>
+          </cell>
+          <cell r="M4">
+            <v>0</v>
+          </cell>
+          <cell r="N4">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>PlayerSkill_PurifyWater</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>钻石-低技巧-针对性机制-补充中等</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>圣水-小范围驱散</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>净化药水</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</v>
+          </cell>
+          <cell r="F5">
+            <v>1</v>
+          </cell>
+          <cell r="G5">
+            <v>50</v>
+          </cell>
+          <cell r="H5">
+            <v>1</v>
+          </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5">
+            <v>10</v>
+          </cell>
+          <cell r="K5">
+            <v>99</v>
+          </cell>
+          <cell r="L5">
+            <v>1</v>
+          </cell>
+          <cell r="M5">
+            <v>500</v>
+          </cell>
+          <cell r="N5">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>PlayerSkill_Enhance</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>钻石-中技巧-针对性机制-补充中等</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>强化药剂-一个友军强化且无敌</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>强化子弹</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>暂时大幅强化一名友军并使其无敌</v>
+          </cell>
+          <cell r="F6">
+            <v>2</v>
+          </cell>
+          <cell r="G6">
+            <v>50</v>
+          </cell>
+          <cell r="H6">
+            <v>1</v>
+          </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+          <cell r="J6">
+            <v>3</v>
+          </cell>
+          <cell r="K6">
+            <v>99</v>
+          </cell>
+          <cell r="L6">
+            <v>2</v>
+          </cell>
+          <cell r="M6">
+            <v>1000</v>
+          </cell>
+          <cell r="N6">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>PlayerSkill_Silence</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>钻石-高技巧-针对性机制-补充中等</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>魔法阵-大范围沉默dot</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>绝对静默</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>禁止范围内敌人使用任何技能，且造成持续伤害</v>
+          </cell>
+          <cell r="F7">
+            <v>3</v>
+          </cell>
+          <cell r="G7">
+            <v>50</v>
+          </cell>
+          <cell r="H7">
+            <v>1</v>
+          </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>1</v>
+          </cell>
+          <cell r="K7">
+            <v>99</v>
+          </cell>
+          <cell r="L7">
+            <v>3</v>
+          </cell>
+          <cell r="M7">
+            <v>2000</v>
+          </cell>
+          <cell r="N7">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>PlayerSkill_GoblinSummon</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>付费-低技巧-强力泛用机制-补充较贵</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>增援召唤物-随机单体偷钱</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>哥布林召唤</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>召唤一个哥布林在一段时间内偷取敌人金钱</v>
+          </cell>
+          <cell r="F8">
+            <v>1</v>
+          </cell>
+          <cell r="G8">
+            <v>50</v>
+          </cell>
+          <cell r="H8">
+            <v>1</v>
+          </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+          <cell r="J8">
+            <v>10</v>
+          </cell>
+          <cell r="K8">
+            <v>99</v>
+          </cell>
+          <cell r="L8">
+            <v>1</v>
+          </cell>
+          <cell r="M8">
+            <v>1</v>
+          </cell>
+          <cell r="N8">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>PlayerSkill_Hellfire</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>付费-中技巧-强力泛用机制-补充较贵</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>点燃地面-灼烧范围敌人</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>地狱烈焰</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>降下大范围火焰，并留下火焰灼烧经过的敌人</v>
+          </cell>
+          <cell r="F9">
+            <v>2</v>
+          </cell>
+          <cell r="G9">
+            <v>50</v>
+          </cell>
+          <cell r="H9">
+            <v>1</v>
+          </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+          <cell r="J9">
+            <v>3</v>
+          </cell>
+          <cell r="K9">
+            <v>99</v>
+          </cell>
+          <cell r="L9">
+            <v>2</v>
+          </cell>
+          <cell r="M9">
+            <v>2</v>
+          </cell>
+          <cell r="N9">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>PlayerSkill_Blackhole</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>付费-高技巧-强力泛用机制-补充较贵</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>黑洞-大范围百分比伤害</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>黑洞</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>持续吸引大片敌人，造成生命上限的百分比伤害</v>
+          </cell>
+          <cell r="F10">
+            <v>3</v>
+          </cell>
+          <cell r="G10">
+            <v>50</v>
+          </cell>
+          <cell r="H10">
+            <v>1</v>
+          </cell>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
+          <cell r="J10">
+            <v>1</v>
+          </cell>
+          <cell r="K10">
+            <v>99</v>
+          </cell>
+          <cell r="L10">
+            <v>3</v>
+          </cell>
+          <cell r="M10">
+            <v>4</v>
+          </cell>
+          <cell r="N10">
+            <v>300</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1998,13 +2625,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2177,7 +2804,9 @@
       <c r="J5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="15" t="s">
+        <v>134</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3673,7 +4302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
         <v>92</v>
       </c>
@@ -3698,6 +4327,75 @@
       <c r="J65" s="7">
         <v>40</v>
       </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="7">
+        <f>VLOOKUP(K67,[1]技能!$A:$N,7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="7">
+        <f>VLOOKUP(K68,[1]技能!$A:$N,7,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3711,7 +4409,7 @@
   <conditionalFormatting sqref="B35:B41">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B1048576 B1:B16 B23 B25:B34">
+  <conditionalFormatting sqref="B42:B66 B1:B16 B23 B25:B34 B69:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116B7441-F5D3-4540-B9B6-8FDC8214D0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AB5247-B757-4C32-9233-47C765BB07F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,12 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="146">
   <si>
     <t>##var</t>
   </si>
@@ -537,6 +524,77 @@
   </si>
   <si>
     <t>冰霜漩涡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_Tower_Burning</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔燃烧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DamageUnit_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monster_StoneGolem3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>怪物技能-石像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-自我治疗</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DamageUnit_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monster_FireSpirit1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火精灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_PlayerAoe2_Crit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮暴击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -731,6 +789,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -742,15 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -898,16 +954,16 @@
             <v>100</v>
           </cell>
           <cell r="F2" t="str">
-            <v>快速单体，能应对各种情况</v>
+            <v>快速单体，2级连发，3级暴击</v>
           </cell>
           <cell r="G2">
             <v>50</v>
           </cell>
           <cell r="H2">
-            <v>180</v>
+            <v>90</v>
           </cell>
           <cell r="I2">
-            <v>648</v>
+            <v>324</v>
           </cell>
           <cell r="J2">
             <v>0.5</v>
@@ -919,12 +975,15 @@
             <v>9</v>
           </cell>
           <cell r="M2" t="str">
-            <v>3级暴击率/爆伤</v>
+            <v>3级暴击率/爆伤/23级连发数</v>
           </cell>
           <cell r="N2">
             <v>0.15</v>
           </cell>
           <cell r="O2">
+            <v>2</v>
+          </cell>
+          <cell r="P2">
             <v>2</v>
           </cell>
           <cell r="R2">
@@ -954,25 +1013,31 @@
             <v>100</v>
           </cell>
           <cell r="F3" t="str">
-            <v>快速群体，能应对各种情况</v>
+            <v>快速群体，2级3次高爆弹，3级全高爆弹</v>
           </cell>
           <cell r="G3">
-            <v>17</v>
+            <v>25</v>
           </cell>
           <cell r="H3">
-            <v>61</v>
+            <v>54</v>
           </cell>
           <cell r="I3">
-            <v>220</v>
+            <v>324</v>
           </cell>
           <cell r="J3">
             <v>0.5</v>
           </cell>
           <cell r="K3">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="L3">
             <v>9</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>2级高爆倍率</v>
+          </cell>
+          <cell r="N3">
+            <v>3</v>
           </cell>
           <cell r="R3">
             <v>1</v>
@@ -1001,7 +1066,7 @@
             <v>560</v>
           </cell>
           <cell r="F4" t="str">
-            <v>直线群体，高级后可灼烧</v>
+            <v>直线点燃，2级扇形，3级永久点燃</v>
           </cell>
           <cell r="G4">
             <v>17</v>
@@ -1016,7 +1081,7 @@
             <v>0.3</v>
           </cell>
           <cell r="K4">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="L4">
             <v>9</v>
@@ -1025,7 +1090,7 @@
             <v>3级灼烧总伤害/总时间/间隔/输出补正</v>
           </cell>
           <cell r="N4">
-            <v>0.5</v>
+            <v>0.3</v>
           </cell>
           <cell r="O4">
             <v>10</v>
@@ -1034,7 +1099,7 @@
             <v>0.3</v>
           </cell>
           <cell r="Q4">
-            <v>0.5</v>
+            <v>0.7</v>
           </cell>
           <cell r="R4">
             <v>1</v>
@@ -1063,16 +1128,16 @@
             <v>240</v>
           </cell>
           <cell r="F5" t="str">
-            <v>圆形群体</v>
+            <v>圆形群体，2级冰雾减速，3级破甲</v>
           </cell>
           <cell r="G5">
             <v>7</v>
           </cell>
           <cell r="H5">
-            <v>25</v>
+            <v>22</v>
           </cell>
           <cell r="I5">
-            <v>90</v>
+            <v>72</v>
           </cell>
           <cell r="J5">
             <v>0.3</v>
@@ -1084,10 +1149,16 @@
             <v>9</v>
           </cell>
           <cell r="M5" t="str">
-            <v>远处增伤率</v>
+            <v>远处增伤率/2级减速率/3级减甲价率</v>
           </cell>
           <cell r="N5">
             <v>0.06</v>
+          </cell>
+          <cell r="O5">
+            <v>0.1</v>
+          </cell>
+          <cell r="P5">
+            <v>0.2</v>
           </cell>
           <cell r="R5">
             <v>1</v>
@@ -1116,19 +1187,19 @@
             <v>240</v>
           </cell>
           <cell r="F6" t="str">
-            <v>慢速单体，单发伤害高</v>
+            <v>慢速单体，2级2连发，3级3连发</v>
           </cell>
           <cell r="G6">
-            <v>480</v>
+            <v>600</v>
           </cell>
           <cell r="H6">
-            <v>1728</v>
+            <v>1080</v>
           </cell>
           <cell r="I6">
-            <v>3110</v>
+            <v>2592</v>
           </cell>
           <cell r="J6">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K6">
             <v>1</v>
@@ -1137,10 +1208,13 @@
             <v>9</v>
           </cell>
           <cell r="M6" t="str">
-            <v>3级目标</v>
+            <v>2级目标/3级目标</v>
           </cell>
           <cell r="N6">
             <v>2</v>
+          </cell>
+          <cell r="O6">
+            <v>3</v>
           </cell>
           <cell r="R6">
             <v>1</v>
@@ -1169,7 +1243,7 @@
             <v>560</v>
           </cell>
           <cell r="F7" t="str">
-            <v>高处加成，单体</v>
+            <v>高处加成，2级3次眩晕，3级2连</v>
           </cell>
           <cell r="G7">
             <v>373</v>
@@ -1190,7 +1264,7 @@
             <v>7.5</v>
           </cell>
           <cell r="M7" t="str">
-            <v>低处增伤率，3级目标，加成高度</v>
+            <v>低处增伤率，3级目标，加成高度，眩晕时间</v>
           </cell>
           <cell r="N7">
             <v>0.1</v>
@@ -1219,25 +1293,25 @@
             <v>1</v>
           </cell>
           <cell r="C8">
-            <v>1</v>
+            <v>0.8</v>
           </cell>
           <cell r="D8">
             <v>100</v>
           </cell>
           <cell r="E8">
-            <v>100</v>
+            <v>80</v>
           </cell>
           <cell r="F8" t="str">
-            <v>减速</v>
+            <v>减速，2级2目标，3级3目标</v>
           </cell>
           <cell r="G8">
-            <v>33</v>
+            <v>27</v>
           </cell>
           <cell r="H8">
-            <v>118</v>
+            <v>48</v>
           </cell>
           <cell r="I8">
-            <v>427</v>
+            <v>116</v>
           </cell>
           <cell r="J8">
             <v>1</v>
@@ -1346,7 +1420,7 @@
             <v>100</v>
           </cell>
           <cell r="F10" t="str">
-            <v>加速友军</v>
+            <v>加速友军，2级加攻击，3级大范围</v>
           </cell>
           <cell r="G10">
             <v>0</v>
@@ -1367,16 +1441,19 @@
             <v>7.5</v>
           </cell>
           <cell r="M10" t="str">
-            <v>CD减少lv1/2/3</v>
+            <v>CD减少lv1/2/3/23级加攻击</v>
           </cell>
           <cell r="N10">
             <v>0.3</v>
           </cell>
           <cell r="O10">
+            <v>0.4</v>
+          </cell>
+          <cell r="P10">
             <v>0.5</v>
           </cell>
-          <cell r="P10">
-            <v>0.6</v>
+          <cell r="Q10">
+            <v>0.2</v>
           </cell>
           <cell r="R10">
             <v>1</v>
@@ -1405,19 +1482,19 @@
             <v>240</v>
           </cell>
           <cell r="F11" t="str">
-            <v>单体，让敌人中毒</v>
+            <v>单体中毒，2级2目标，3级3目标</v>
           </cell>
           <cell r="G11">
-            <v>120</v>
+            <v>300</v>
           </cell>
           <cell r="H11">
-            <v>432</v>
+            <v>540</v>
           </cell>
           <cell r="I11">
-            <v>1555</v>
+            <v>1296</v>
           </cell>
           <cell r="J11">
-            <v>1</v>
+            <v>2.5</v>
           </cell>
           <cell r="K11">
             <v>1</v>
@@ -1467,7 +1544,7 @@
             <v>70</v>
           </cell>
           <cell r="F12" t="str">
-            <v>消耗型，用完造成一次高额伤害</v>
+            <v>造成一次高额伤害，2级减速，3级眩晕，</v>
           </cell>
           <cell r="G12">
             <v>2000</v>
@@ -1488,13 +1565,16 @@
             <v>7.5</v>
           </cell>
           <cell r="M12" t="str">
-            <v>伤害/眩晕</v>
+            <v>伤害/眩晕/2级减速率</v>
           </cell>
           <cell r="N12">
             <v>2000</v>
           </cell>
           <cell r="O12">
             <v>3</v>
+          </cell>
+          <cell r="P12">
+            <v>0.5</v>
           </cell>
           <cell r="R12">
             <v>1</v>
@@ -1514,25 +1594,25 @@
             <v>1</v>
           </cell>
           <cell r="C13">
-            <v>1</v>
+            <v>0.8</v>
           </cell>
           <cell r="D13">
             <v>100</v>
           </cell>
           <cell r="E13">
-            <v>100</v>
+            <v>80</v>
           </cell>
           <cell r="F13" t="str">
-            <v>攻击偷金币</v>
+            <v>攻击偷金币，2级远距离，3级偷2此</v>
           </cell>
           <cell r="G13">
-            <v>50</v>
+            <v>40</v>
           </cell>
           <cell r="H13">
-            <v>180</v>
+            <v>144</v>
           </cell>
           <cell r="I13">
-            <v>648</v>
+            <v>518</v>
           </cell>
           <cell r="J13">
             <v>1</v>
@@ -1553,7 +1633,7 @@
             <v>4</v>
           </cell>
           <cell r="P13">
-            <v>15</v>
+            <v>8</v>
           </cell>
           <cell r="Q13">
             <v>0.5</v>
@@ -1585,19 +1665,19 @@
             <v>240</v>
           </cell>
           <cell r="F14" t="str">
-            <v>抛物线群体，打远处伤害高</v>
+            <v>抛物线群体，2级大范围 ，3级2连发</v>
           </cell>
           <cell r="G14">
-            <v>104</v>
+            <v>130</v>
           </cell>
           <cell r="H14">
-            <v>374</v>
+            <v>468</v>
           </cell>
           <cell r="I14">
-            <v>1347</v>
+            <v>842</v>
           </cell>
           <cell r="J14">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K14">
             <v>3</v>
@@ -1606,10 +1686,13 @@
             <v>9</v>
           </cell>
           <cell r="M14" t="str">
-            <v>远处增伤率lv1/2/3</v>
+            <v>远处增伤率lv1/2/3/3级目标数</v>
           </cell>
           <cell r="N14">
             <v>0.06</v>
+          </cell>
+          <cell r="O14">
+            <v>2</v>
           </cell>
           <cell r="R14">
             <v>1</v>
@@ -1638,19 +1721,19 @@
             <v>560</v>
           </cell>
           <cell r="F15" t="str">
-            <v>扇形群体，可击退敌人</v>
+            <v>扇形击退，2级远距离，3级眩晕</v>
           </cell>
           <cell r="G15">
-            <v>373</v>
+            <v>467</v>
           </cell>
           <cell r="H15">
-            <v>1342</v>
+            <v>1681</v>
           </cell>
           <cell r="I15">
-            <v>4834</v>
+            <v>6052</v>
           </cell>
           <cell r="J15">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K15">
             <v>3</v>
@@ -1694,19 +1777,19 @@
             <v>240</v>
           </cell>
           <cell r="F16" t="str">
-            <v>直线群体，子弹可穿透</v>
+            <v>直线穿透，2级加粗，3级超长</v>
           </cell>
           <cell r="G16">
-            <v>160</v>
+            <v>200</v>
           </cell>
           <cell r="H16">
-            <v>576</v>
+            <v>720</v>
           </cell>
           <cell r="I16">
-            <v>2073</v>
+            <v>2592</v>
           </cell>
           <cell r="J16">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K16">
             <v>3</v>
@@ -1747,34 +1830,37 @@
             <v>560</v>
           </cell>
           <cell r="F17" t="str">
-            <v>同时发射多弹道，可单可群</v>
+            <v>同时发射多弹道，2级加量，3级加范围</v>
           </cell>
           <cell r="G17">
-            <v>187</v>
+            <v>467</v>
           </cell>
           <cell r="H17">
-            <v>673</v>
+            <v>630</v>
           </cell>
           <cell r="I17">
-            <v>1615</v>
+            <v>2269</v>
           </cell>
           <cell r="J17">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K17">
             <v>1</v>
           </cell>
           <cell r="L17">
-            <v>9</v>
+            <v>7.5</v>
           </cell>
           <cell r="M17" t="str">
-            <v>1、2级弹药/3级弹药</v>
+            <v>1级弹药/2级弹药/3级弹药</v>
           </cell>
           <cell r="N17">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="O17">
-            <v>9</v>
+            <v>8</v>
+          </cell>
+          <cell r="P17">
+            <v>8</v>
           </cell>
           <cell r="R17">
             <v>1</v>
@@ -1786,132 +1872,49 @@
             <v>12.96</v>
           </cell>
         </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>破甲弹</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>冰霜漩涡</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>时空结界</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>净化药水</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>强化子弹</v>
+          </cell>
+        </row>
         <row r="24">
-          <cell r="D24" t="str">
-            <v>弩箭塔</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>快速单体，能应对各种情况</v>
+          <cell r="A24" t="str">
+            <v>雷电领域</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="D25" t="str">
-            <v>加农炮</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>快速群体，能应对各种情况</v>
+          <cell r="A25" t="str">
+            <v>哥布林召唤</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="D26" t="str">
-            <v>火焰塔</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>直线群体，高级后可灼烧</v>
+          <cell r="A26" t="str">
+            <v>地狱烈焰</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="D27" t="str">
-            <v>毒雾塔</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>圆形群体</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>龙击炮</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>慢速单体，单发伤害高</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>雷电塔</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>高处加成，单体</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30" t="str">
-            <v>冰魔塔</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>减速</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31" t="str">
-            <v>炼金塔</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>生产金币</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32" t="str">
-            <v>加速塔</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>加速友军</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33" t="str">
-            <v>毒蝎塔</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>单体，让敌人中毒</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34" t="str">
-            <v>炸弹</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>消耗型，用完造成一次高额伤害</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35" t="str">
-            <v>哥布林</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>攻击偷金币</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36" t="str">
-            <v>火箭塔</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>抛物线群体，打远处伤害高</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37" t="str">
-            <v>魔像</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>扇形群体，可击退敌人</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38" t="str">
-            <v>水晶</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>直线群体，子弹可穿透</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39" t="str">
-            <v>奥术天球</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>同时发射多弹道，可单可群</v>
+          <cell r="A27" t="str">
+            <v>黑洞</v>
           </cell>
         </row>
       </sheetData>
@@ -1952,10 +1955,10 @@
             <v>每秒恢复</v>
           </cell>
           <cell r="L1" t="str">
-            <v>充满回合</v>
+            <v>每回合回复</v>
           </cell>
           <cell r="M1" t="str">
-            <v>解锁价格</v>
+            <v>解锁方式</v>
           </cell>
           <cell r="N1" t="str">
             <v>补充价格</v>
@@ -1975,7 +1978,7 @@
             <v>破甲弹</v>
           </cell>
           <cell r="E2" t="str">
-            <v>伤害敌方并降低护甲</v>
+            <v>伤害敌方并降低护甲，可破除隐身状态</v>
           </cell>
           <cell r="F2">
             <v>1</v>
@@ -1990,16 +1993,16 @@
             <v>0</v>
           </cell>
           <cell r="J2">
-            <v>10</v>
+            <v>20</v>
           </cell>
           <cell r="K2">
-            <v>99</v>
+            <v>0</v>
           </cell>
           <cell r="L2">
-            <v>1</v>
-          </cell>
-          <cell r="M2">
-            <v>0</v>
+            <v>7</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>UnLockDefault</v>
           </cell>
           <cell r="N2">
             <v>30</v>
@@ -2037,13 +2040,13 @@
             <v>3</v>
           </cell>
           <cell r="K3">
-            <v>99</v>
+            <v>0</v>
           </cell>
           <cell r="L3">
-            <v>2</v>
-          </cell>
-          <cell r="M3">
-            <v>0</v>
+            <v>1</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>UnLockByPVE</v>
           </cell>
           <cell r="N3">
             <v>30</v>
@@ -2081,13 +2084,13 @@
             <v>1</v>
           </cell>
           <cell r="K4">
-            <v>99</v>
+            <v>0</v>
           </cell>
           <cell r="L4">
-            <v>3</v>
-          </cell>
-          <cell r="M4">
-            <v>0</v>
+            <v>0.34</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>UnLockByPVE</v>
           </cell>
           <cell r="N4">
             <v>30</v>
@@ -2107,7 +2110,7 @@
             <v>净化药水</v>
           </cell>
           <cell r="E5" t="str">
-            <v>驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</v>
+            <v>从天上掉落圣水，驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</v>
           </cell>
           <cell r="F5">
             <v>1</v>
@@ -2125,13 +2128,13 @@
             <v>10</v>
           </cell>
           <cell r="K5">
-            <v>99</v>
+            <v>0</v>
           </cell>
           <cell r="L5">
-            <v>1</v>
-          </cell>
-          <cell r="M5">
-            <v>500</v>
+            <v>5</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>UnLockByDiamond;500</v>
           </cell>
           <cell r="N5">
             <v>100</v>
@@ -2169,13 +2172,13 @@
             <v>3</v>
           </cell>
           <cell r="K6">
-            <v>99</v>
+            <v>0</v>
           </cell>
           <cell r="L6">
-            <v>2</v>
-          </cell>
-          <cell r="M6">
-            <v>1000</v>
+            <v>1</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>UnLockByDiamond;2000</v>
           </cell>
           <cell r="N6">
             <v>100</v>
@@ -2192,7 +2195,7 @@
             <v>魔法阵-大范围沉默dot</v>
           </cell>
           <cell r="D7" t="str">
-            <v>绝对静默</v>
+            <v>雷电领域</v>
           </cell>
           <cell r="E7" t="str">
             <v>禁止范围内敌人使用任何技能，且造成持续伤害</v>
@@ -2213,13 +2216,13 @@
             <v>1</v>
           </cell>
           <cell r="K7">
-            <v>99</v>
+            <v>0</v>
           </cell>
           <cell r="L7">
-            <v>3</v>
-          </cell>
-          <cell r="M7">
-            <v>2000</v>
+            <v>0.34</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>UnLockByDiamond;5000</v>
           </cell>
           <cell r="N7">
             <v>100</v>
@@ -2257,13 +2260,13 @@
             <v>10</v>
           </cell>
           <cell r="K8">
-            <v>99</v>
+            <v>0</v>
           </cell>
           <cell r="L8">
-            <v>1</v>
-          </cell>
-          <cell r="M8">
-            <v>1</v>
+            <v>5</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N8">
             <v>300</v>
@@ -2301,13 +2304,13 @@
             <v>3</v>
           </cell>
           <cell r="K9">
-            <v>99</v>
+            <v>0</v>
           </cell>
           <cell r="L9">
-            <v>2</v>
-          </cell>
-          <cell r="M9">
-            <v>2</v>
+            <v>1</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N9">
             <v>300</v>
@@ -2345,13 +2348,13 @@
             <v>1</v>
           </cell>
           <cell r="K10">
-            <v>99</v>
+            <v>0</v>
           </cell>
           <cell r="L10">
-            <v>3</v>
-          </cell>
-          <cell r="M10">
-            <v>4</v>
+            <v>0.34</v>
+          </cell>
+          <cell r="M10" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N10">
             <v>300</v>
@@ -2625,13 +2628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2660,14 +2663,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2728,14 +2731,14 @@
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2804,7 +2807,7 @@
       <c r="J5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="2" t="s">
         <v>134</v>
       </c>
       <c r="L5" s="1"/>
@@ -3049,7 +3052,7 @@
         <v>28</v>
       </c>
       <c r="F13" s="7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -3362,47 +3365,72 @@
       </c>
     </row>
     <row r="23" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="7">
+        <v>3</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="7">
-        <v>-0.15</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F25" s="7">
+        <v>-0.3</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="26" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>65</v>
+      <c r="B26" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="7">
-        <v>-0.15</v>
+        <v>-0.05</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
@@ -3418,34 +3446,11 @@
       </c>
     </row>
     <row r="27" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="7">
-        <v>-0.15</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7">
-        <v>0</v>
-      </c>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>65</v>
@@ -3471,7 +3476,7 @@
     </row>
     <row r="29" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>65</v>
@@ -3497,7 +3502,7 @@
     </row>
     <row r="30" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>65</v>
@@ -3523,7 +3528,7 @@
     </row>
     <row r="31" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>65</v>
@@ -3549,7 +3554,7 @@
     </row>
     <row r="32" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>65</v>
@@ -3575,7 +3580,7 @@
     </row>
     <row r="33" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>65</v>
@@ -3599,13 +3604,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="7">
+        <v>-0.15</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="35" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>21</v>
@@ -3626,35 +3656,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="7">
-        <v>-0.15</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="36" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>93</v>
@@ -3680,7 +3685,7 @@
     </row>
     <row r="38" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>93</v>
@@ -3706,7 +3711,7 @@
     </row>
     <row r="39" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>93</v>
@@ -3732,7 +3737,7 @@
     </row>
     <row r="40" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>93</v>
@@ -3758,7 +3763,7 @@
     </row>
     <row r="41" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>93</v>
@@ -3782,19 +3787,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="7">
+        <v>-0.15</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="43" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F43" s="7">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="G43" s="7">
         <v>0</v>
@@ -3809,44 +3839,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="7">
-        <v>1</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="44" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F45" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
@@ -3863,16 +3868,16 @@
     </row>
     <row r="46" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F46" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="7">
         <v>0</v>
@@ -3889,16 +3894,16 @@
     </row>
     <row r="47" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F47" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G47" s="7">
         <v>0</v>
@@ -3914,17 +3919,17 @@
       </c>
     </row>
     <row r="48" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="8" t="s">
-        <v>109</v>
+      <c r="B48" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F48" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G48" s="7">
         <v>0</v>
@@ -3941,13 +3946,16 @@
     </row>
     <row r="49" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="F49" s="7">
+        <v>10</v>
       </c>
       <c r="G49" s="7">
         <v>0</v>
@@ -3963,17 +3971,17 @@
       </c>
     </row>
     <row r="50" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="7" t="s">
-        <v>79</v>
+      <c r="B50" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F50" s="7">
-        <v>-0.25</v>
+        <v>10</v>
       </c>
       <c r="G50" s="7">
         <v>0</v>
@@ -3990,16 +3998,13 @@
     </row>
     <row r="51" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="7">
-        <v>-0.25</v>
+        <v>30</v>
       </c>
       <c r="G51" s="7">
         <v>0</v>
@@ -4016,7 +4021,7 @@
     </row>
     <row r="52" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>31</v>
@@ -4042,7 +4047,7 @@
     </row>
     <row r="53" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>31</v>
@@ -4068,16 +4073,16 @@
     </row>
     <row r="54" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F54" s="7">
-        <v>0.05</v>
+        <v>-0.25</v>
       </c>
       <c r="G54" s="7">
         <v>0</v>
@@ -4094,16 +4099,16 @@
     </row>
     <row r="55" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F55" s="7">
-        <v>0.05</v>
+        <v>-0.25</v>
       </c>
       <c r="G55" s="7">
         <v>0</v>
@@ -4120,10 +4125,10 @@
     </row>
     <row r="56" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>28</v>
@@ -4146,16 +4151,16 @@
     </row>
     <row r="57" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="7">
-        <v>3.7499999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G57" s="7">
         <v>0</v>
@@ -4172,16 +4177,16 @@
     </row>
     <row r="58" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="7">
-        <v>3.7499999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G58" s="7">
         <v>0</v>
@@ -4198,10 +4203,10 @@
     </row>
     <row r="59" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>28</v>
@@ -4222,66 +4227,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="7">
-        <v>1</v>
-      </c>
-      <c r="G62" s="7">
-        <v>10</v>
-      </c>
-      <c r="H62" s="7">
-        <v>40</v>
-      </c>
-      <c r="I62" s="7">
-        <v>0</v>
-      </c>
-      <c r="J62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="7">
-        <v>1</v>
-      </c>
-      <c r="G63" s="7">
-        <v>-10</v>
-      </c>
-      <c r="H63" s="7">
-        <v>40</v>
-      </c>
-      <c r="I63" s="7">
-        <v>0</v>
-      </c>
-      <c r="J63" s="7">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="60" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="7">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="7">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>38</v>
@@ -4290,24 +4295,24 @@
         <v>1</v>
       </c>
       <c r="G64" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H64" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I64" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J64" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>38</v>
@@ -4316,86 +4321,194 @@
         <v>1</v>
       </c>
       <c r="G65" s="7">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H65" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>10</v>
+      </c>
+      <c r="J66" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="7">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
         <v>-10</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J67" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="9" t="s">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C69" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D69" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F67" s="7">
-        <f>VLOOKUP(K67,[1]技能!$A:$N,7,FALSE)</f>
+      <c r="F69" s="7">
+        <f>VLOOKUP(K69,[1]技能!$A:$N,7,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="G67" s="7">
-        <v>0</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>0</v>
-      </c>
-      <c r="J67" s="7">
-        <v>0</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C70" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D70" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="7">
-        <f>VLOOKUP(K68,[1]技能!$A:$N,7,FALSE)</f>
+      <c r="F70" s="7">
+        <f>VLOOKUP(K70,[1]技能!$A:$N,7,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="G68" s="7">
-        <v>0</v>
-      </c>
-      <c r="H68" s="7">
-        <v>0</v>
-      </c>
-      <c r="I68" s="7">
-        <v>0</v>
-      </c>
-      <c r="J68" s="7">
-        <v>0</v>
-      </c>
-      <c r="K68" t="s">
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K69"/>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="7">
+        <v>1</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
+      <c r="K71"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4406,10 +4519,10 @@
   <conditionalFormatting sqref="B17:B19">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B41">
+  <conditionalFormatting sqref="B37:B43">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B66 B1:B16 B23 B25:B34 B69:B1048576">
+  <conditionalFormatting sqref="B44:B68 B1:B16 B28:B36 B72 B74:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DamageUnit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AB5247-B757-4C32-9233-47C765BB07F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FCE7DD-1025-4B42-99B4-ABC2A9A2DDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="157">
   <si>
     <t>##var</t>
   </si>
@@ -595,6 +595,50 @@
   </si>
   <si>
     <t>加农炮暴击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>floatingTextId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘字id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_Home_Escape</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物碰到大本营(逃跑)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_Home_Recovery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本营回血(复活)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatingText_Default</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=ActionCfg_FloatingTextCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>免死(恢复1血,击杀前触发)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageUnit_InvulnerableToDeath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatingText_None</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -796,11 +840,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -871,6 +917,7 @@
       <sheetName val="无限模式"/>
       <sheetName val="挑战模式"/>
       <sheetName val="引导"/>
+      <sheetName val="商业化"/>
       <sheetName val="参考"/>
     </sheetNames>
     <sheetDataSet>
@@ -1999,13 +2046,13 @@
             <v>0</v>
           </cell>
           <cell r="L2">
-            <v>7</v>
+            <v>5</v>
           </cell>
           <cell r="M2" t="str">
             <v>UnLockDefault</v>
           </cell>
           <cell r="N2">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="3">
@@ -2049,7 +2096,7 @@
             <v>UnLockByPVE</v>
           </cell>
           <cell r="N3">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="4">
@@ -2093,7 +2140,7 @@
             <v>UnLockByPVE</v>
           </cell>
           <cell r="N4">
-            <v>30</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="5">
@@ -2134,10 +2181,10 @@
             <v>5</v>
           </cell>
           <cell r="M5" t="str">
-            <v>UnLockByDiamond;500</v>
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N5">
-            <v>100</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="6">
@@ -2178,10 +2225,10 @@
             <v>1</v>
           </cell>
           <cell r="M6" t="str">
-            <v>UnLockByDiamond;2000</v>
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N6">
-            <v>100</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="7">
@@ -2222,10 +2269,10 @@
             <v>0.34</v>
           </cell>
           <cell r="M7" t="str">
-            <v>UnLockByDiamond;5000</v>
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N7">
-            <v>100</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="8">
@@ -2269,7 +2316,7 @@
             <v>UnLockSoon</v>
           </cell>
           <cell r="N8">
-            <v>300</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="9">
@@ -2313,7 +2360,7 @@
             <v>UnLockSoon</v>
           </cell>
           <cell r="N9">
-            <v>300</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="10">
@@ -2357,7 +2404,7 @@
             <v>UnLockSoon</v>
           </cell>
           <cell r="N10">
-            <v>300</v>
+            <v>25</v>
           </cell>
         </row>
       </sheetData>
@@ -2365,6 +2412,7 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2628,13 +2676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:U78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2643,14 +2691,15 @@
     <col min="2" max="2" width="34" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2664,14 +2713,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="1"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2681,33 +2732,34 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -2717,8 +2769,9 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2731,15 +2784,17 @@
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="1"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2749,8 +2804,9 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2759,13 +2815,13 @@
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2775,8 +2831,9 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2789,28 +2846,30 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -2819,23 +2878,24 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
@@ -2845,218 +2905,239 @@
       <c r="J6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>49.999999999999993</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>6</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>49.999999999999993</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
       <c r="J8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
       <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
         <v>49.999999999999993</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
       <c r="J9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
         <v>-10</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>49.999999999999993</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="7">
+      <c r="M10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
       <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
         <v>-10</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>49.999999999999993</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L11" s="7">
+      <c r="M11" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
         <v>-10</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <v>49.999999999999993</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13" s="7">
         <v>0.4</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -3066,30 +3147,33 @@
       <c r="J13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M13" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="7">
-        <f>VLOOKUP(K14,[1]防御塔!$A:$T,13+L14,FALSE)</f>
+      <c r="G14" s="7">
+        <f>VLOOKUP(L14,[1]防御塔!$A:$T,13+M14,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -3099,30 +3183,33 @@
       <c r="J14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="7">
-        <f>VLOOKUP(K15,[1]防御塔!$A:$T,13+L15,FALSE)</f>
+      <c r="G15" s="7">
+        <f>VLOOKUP(L15,[1]防御塔!$A:$T,13+M15,FALSE)</f>
         <v>0.02</v>
       </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
@@ -3132,30 +3219,33 @@
       <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="7">
-        <f>VLOOKUP(K16,[1]防御塔!$A:$T,13+L16,FALSE)</f>
+      <c r="G16" s="7">
+        <f>VLOOKUP(L16,[1]防御塔!$A:$T,13+M16,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
@@ -3165,221 +3255,242 @@
       <c r="J16" s="7">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>129</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H17" s="7">
         <v>6</v>
       </c>
-      <c r="H17" s="7">
+      <c r="I17" s="7">
         <v>49.999999999999993</v>
       </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
       <c r="J17" s="7">
         <v>0</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="7">
+      <c r="M17" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>115</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H18" s="7">
         <v>6</v>
       </c>
-      <c r="H18" s="7">
+      <c r="I18" s="7">
         <v>49.999999999999993</v>
       </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
       <c r="J18" s="7">
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L18" s="7">
+      <c r="M18" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>116</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H19" s="7">
         <v>6</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I19" s="7">
         <v>49.999999999999993</v>
       </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
       <c r="J19" s="7">
         <v>0</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M19" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H20" s="7">
         <v>-7.0000000000000009</v>
       </c>
-      <c r="H20" s="7">
+      <c r="I20" s="7">
         <v>50.000000000000021</v>
       </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
       <c r="J20" s="7">
         <v>0</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>120</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21" s="7">
         <v>-7.0000000000000009</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I21" s="7">
         <v>50.000000000000021</v>
       </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
       <c r="J21" s="7">
         <v>0</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22" s="7">
         <v>1</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H22" s="7">
         <v>-7.0000000000000009</v>
       </c>
-      <c r="H22" s="7">
+      <c r="I22" s="7">
         <v>50.000000000000021</v>
       </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
       <c r="J22" s="7">
         <v>0</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23" s="7">
         <v>3</v>
       </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
@@ -3389,25 +3500,28 @@
       <c r="J23" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="7">
-        <v>-0.3</v>
-      </c>
       <c r="G25" s="7">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3418,22 +3532,25 @@
       <c r="J25" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
         <v>140</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="7">
-        <v>-0.05</v>
-      </c>
       <c r="G26" s="7">
-        <v>0</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3444,26 +3561,29 @@
       <c r="J26" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="7">
+      <c r="G28" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
@@ -3473,23 +3593,26 @@
       <c r="J28" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G29" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
@@ -3499,23 +3622,26 @@
       <c r="J29" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="7">
+      <c r="G30" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
@@ -3525,23 +3651,26 @@
       <c r="J30" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G31" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
@@ -3551,23 +3680,26 @@
       <c r="J31" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="7">
+      <c r="G32" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
@@ -3577,23 +3709,26 @@
       <c r="J32" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="7">
+      <c r="G33" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
@@ -3603,23 +3738,26 @@
       <c r="J33" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="7">
+      <c r="G34" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
@@ -3629,23 +3767,26 @@
       <c r="J34" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="7">
+      <c r="G35" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
@@ -3655,24 +3796,27 @@
       <c r="J35" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="7">
+      <c r="G37" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
@@ -3682,23 +3826,26 @@
       <c r="J37" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="7">
+      <c r="G38" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
@@ -3708,23 +3855,26 @@
       <c r="J38" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G39" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
@@ -3734,23 +3884,26 @@
       <c r="J39" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="7">
+      <c r="G40" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
@@ -3760,23 +3913,26 @@
       <c r="J40" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="7">
+      <c r="G41" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
@@ -3786,23 +3942,26 @@
       <c r="J41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
@@ -3812,23 +3971,26 @@
       <c r="J42" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="7">
+      <c r="G43" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
@@ -3838,21 +4000,24 @@
       <c r="J43" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="7">
-        <v>0</v>
-      </c>
       <c r="G45" s="7">
         <v>0</v>
       </c>
@@ -3865,23 +4030,26 @@
       <c r="J45" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="7">
+      <c r="G46" s="7">
         <v>1</v>
       </c>
-      <c r="G46" s="7">
-        <v>0</v>
-      </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
@@ -3891,23 +4059,26 @@
       <c r="J46" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="7">
+      <c r="G47" s="7">
         <v>2</v>
       </c>
-      <c r="G47" s="7">
-        <v>0</v>
-      </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
@@ -3917,23 +4088,26 @@
       <c r="J47" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>76</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="7">
+      <c r="G48" s="7">
         <v>2</v>
       </c>
-      <c r="G48" s="7">
-        <v>0</v>
-      </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
@@ -3943,23 +4117,26 @@
       <c r="J48" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="7">
+      <c r="G49" s="7">
         <v>10</v>
       </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
@@ -3969,23 +4146,26 @@
       <c r="J49" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="7">
+      <c r="G50" s="7">
         <v>10</v>
       </c>
-      <c r="G50" s="7">
-        <v>0</v>
-      </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
@@ -3995,20 +4175,23 @@
       <c r="J50" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
@@ -4018,23 +4201,26 @@
       <c r="J51" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="7">
+      <c r="G52" s="7">
         <v>-0.25</v>
       </c>
-      <c r="G52" s="7">
-        <v>0</v>
-      </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
@@ -4044,23 +4230,26 @@
       <c r="J52" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="7">
+      <c r="G53" s="7">
         <v>-0.25</v>
       </c>
-      <c r="G53" s="7">
-        <v>0</v>
-      </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
@@ -4070,23 +4259,26 @@
       <c r="J53" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="7">
+      <c r="G54" s="7">
         <v>-0.25</v>
       </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
@@ -4096,23 +4288,26 @@
       <c r="J54" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="7">
+      <c r="G55" s="7">
         <v>-0.25</v>
       </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
@@ -4122,23 +4317,26 @@
       <c r="J55" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="7">
+      <c r="G56" s="7">
         <v>0.05</v>
       </c>
-      <c r="G56" s="7">
-        <v>0</v>
-      </c>
       <c r="H56" s="7">
         <v>0</v>
       </c>
@@ -4148,23 +4346,26 @@
       <c r="J56" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="7">
+      <c r="G57" s="7">
         <v>0.05</v>
       </c>
-      <c r="G57" s="7">
-        <v>0</v>
-      </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
@@ -4174,23 +4375,26 @@
       <c r="J57" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="7">
+      <c r="G58" s="7">
         <v>0.05</v>
       </c>
-      <c r="G58" s="7">
-        <v>0</v>
-      </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
@@ -4200,23 +4404,26 @@
       <c r="J58" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="7">
+      <c r="G59" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="G59" s="7">
-        <v>0</v>
-      </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
@@ -4226,23 +4433,26 @@
       <c r="J59" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="7">
+      <c r="G60" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="G60" s="7">
-        <v>0</v>
-      </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
@@ -4252,23 +4462,26 @@
       <c r="J60" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F61" s="7">
+      <c r="G61" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="G61" s="7">
-        <v>0</v>
-      </c>
       <c r="H61" s="7">
         <v>0</v>
       </c>
@@ -4278,114 +4491,129 @@
       <c r="J61" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="7">
+      <c r="G64" s="7">
         <v>1</v>
       </c>
-      <c r="G64" s="7">
+      <c r="H64" s="7">
         <v>10</v>
       </c>
-      <c r="H64" s="7">
+      <c r="I64" s="7">
         <v>40</v>
       </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
       <c r="J64" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="7">
+      <c r="G65" s="7">
         <v>1</v>
       </c>
-      <c r="G65" s="7">
+      <c r="H65" s="7">
         <v>-10</v>
       </c>
-      <c r="H65" s="7">
+      <c r="I65" s="7">
         <v>40</v>
       </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
       <c r="J65" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="7">
+      <c r="G66" s="7">
         <v>1</v>
       </c>
-      <c r="G66" s="7">
-        <v>0</v>
-      </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
         <v>10</v>
       </c>
-      <c r="J66" s="7">
+      <c r="K66" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="7">
+      <c r="G67" s="7">
         <v>1</v>
       </c>
-      <c r="G67" s="7">
-        <v>0</v>
-      </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
         <v>-10</v>
       </c>
-      <c r="J67" s="7">
+      <c r="K67" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="9" t="s">
         <v>130</v>
       </c>
@@ -4395,16 +4623,16 @@
       <c r="D69" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="7">
-        <f>VLOOKUP(K69,[1]技能!$A:$N,7,FALSE)</f>
+      <c r="G69" s="7">
+        <f>VLOOKUP(L69,[1]技能!$A:$N,7,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="G69" s="7">
-        <v>0</v>
-      </c>
       <c r="H69" s="7">
         <v>0</v>
       </c>
@@ -4414,11 +4642,14 @@
       <c r="J69" s="7">
         <v>0</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="7">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="9" t="s">
         <v>135</v>
       </c>
@@ -4428,16 +4659,16 @@
       <c r="D70" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F70" s="7">
-        <f>VLOOKUP(K70,[1]技能!$A:$N,7,FALSE)</f>
+      <c r="G70" s="7">
+        <f>VLOOKUP(L70,[1]技能!$A:$N,7,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="G70" s="7">
-        <v>0</v>
-      </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
@@ -4447,11 +4678,14 @@
       <c r="J70" s="7">
         <v>0</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="7">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="9" t="s">
         <v>138</v>
       </c>
@@ -4461,15 +4695,15 @@
       <c r="D71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="7">
+      <c r="G71" s="7">
         <v>1</v>
       </c>
-      <c r="G71" s="7">
-        <v>0</v>
-      </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
@@ -4479,9 +4713,12 @@
       <c r="J71" s="7">
         <v>0</v>
       </c>
-      <c r="K71"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="7">
+        <v>0</v>
+      </c>
+      <c r="L71"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="12" t="s">
         <v>142</v>
       </c>
@@ -4491,14 +4728,14 @@
       <c r="D73" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="7">
-        <v>1</v>
-      </c>
       <c r="G73" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -4507,13 +4744,103 @@
         <v>0</v>
       </c>
       <c r="J73" s="7">
+        <v>0</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>0</v>
+      </c>
+      <c r="K76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7">
+        <v>0</v>
+      </c>
+      <c r="K77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F3:K3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B17:B19">
